--- a/Lab 5/KineticData2.xlsx
+++ b/Lab 5/KineticData2.xlsx
@@ -1,33 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\che291\Lab 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanporter/PycharmProjects/che291/Lab 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F1F63D-A332-456B-9368-DCA3185C98F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC5E54E-FFFA-4E46-8ACB-0331445D2D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Time (min)</t>
   </si>
   <si>
-    <t>Concentration</t>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Linear Model</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -71,13 +100,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,6 +125,1706 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>2.1374641270682844E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8540554885443535E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5815327325602462E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3472713248276284E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1606289062087811E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.005906607164663E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8278540631487028E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9052803383478833E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0026035692996765E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2898917112831779E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6805282551914502E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1340318715272313E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7013072482675307E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2890357705008412E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9481483685516331E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6223844222204402E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.358464176647489E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1277994252591618E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9058983691072518E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7136327561650751E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.528375894517963E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.389104465787687E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2350685957552934E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1047527234312482E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9785812290763751E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8565311933981109E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7718629529832693E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6730086162869439E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5929091542497744E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5303148400729553E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4388876407489494E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3795719441840296E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3215590901813326E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2508674452307909E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1957673850497561E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.155286624205135E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1155270263052792E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0508573602510602E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.013009535477026E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.7587426794485462E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3944911652864738E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0373159563173118E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6871917262727912E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.3440926502803883E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.1192498043954021E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7878004746109654E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5706990774995276E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.2508235930727636E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.0414120741124598E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.8350615986619814E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6317634290271709E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.4315086704917583E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2342882623239737E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0400929679250612E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.8489133640120196E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6607398287108156E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.4755625284165271E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.3840943319540717E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.2033924468333065E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.025661187001043E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.9379062088784301E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.7646107340375748E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.5942585806247645E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.5101826774606639E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.4268382748586339E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.2623379866087624E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.1811790468890259E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.1007454973181716E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0210357439150702E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.9420481636015102E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.7862328757784947E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.7094017632673359E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.5578838251950024E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.4831933760198964E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4092127898903288E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.335940149875921E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.2633734926094975E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.1915108055436694E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.1203500239829814E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.0498890278685093E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9801256382896361E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.9110576136941868E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.8426826457648736E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.7749983549255937E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.70800228543655E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.70800228543655E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.6416919000317706E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.5760645740462168E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.5111175889724993E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.4468481253788702E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.3832532551099414E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3203299326808444E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.3203299326808444E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2580749857613395E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.1964851046311692E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.1964851046311692E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.1355568304689922E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.0752865423154048E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.015670442524204E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.015670442524204E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.015670442524204E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.9567045404849108E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.8407062905516125E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8407062905516125E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.8407062905516125E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.7836648205008508E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.7272552544710882E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7272552544710882E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.6714723117428076E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.6714723117428076E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.6163103666628025E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.6163103666628025E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.5617634098113325E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.5617634098113325E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.5078250034146999E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.5078250034146999E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4544882299393527E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.401745632564424E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.401745632564424E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.3495891459271712E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.3495891459271712E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.3495891459271712E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.3495891459271712E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.2980100151491566E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.2469987006536403E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.2469987006536403E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2469987006536403E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.1965447656382285E-4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.1965447656382285E-4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.1466367422200288E-4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1466367422200288E-4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.0972619711482757E-4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0972619711482757E-4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.0972619711482757E-4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.0484064084775233E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.0484064084775233E-4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.0484064084775233E-4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.0484064084775233E-4</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.0000543905588848E-4</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9.5218834591365278E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>9.5218834591365278E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4B0-554F-81F4-B6F15C4F421C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>1.990972097137297E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7443226604801083E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5040759285628534E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2947563873010961E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1258229297837451E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8409638114687094E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7006689586591711E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8380196349691223E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9863591940296397E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3080205882339365E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7234755130067087E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1953052394341738E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.77421816276363E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3704721185515959E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.034599919046364E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7117789056946709E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4488261593095741E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2179020234895449E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.9947215758513251E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8004856403052165E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6125327737189685E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.470694513913197E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3132551737810973E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1795776844614136E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0497130096631387E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9236641488656733E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8359671912097084E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7333044578227944E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6498983076653109E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.584579046769802E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4889445183056159E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.426752106775557E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3658117050453179E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2913980081412527E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2332774649080629E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.19051034176912E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1484492931423808E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0799176223543437E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0397413032615626E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0002724939005979E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.6151161817675877E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.2345911594240776E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.8611544426957722E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.4948107886867984E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.254524716629761E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.9000139624567671E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.6676213346595589E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.3249583143277777E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.1004694099173937E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.879145064825115E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6609871250272062E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.4459975033511244E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2341781841336293E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.0255312283243902E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.8200587790879755E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.6177630679652866E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.4186464216638081E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.320281002768692E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1259375431022419E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.934779432589605E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8403957294552595E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.654020792899783E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.4708382750701552E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3804451315531708E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.2908512633060033E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.1140630138315493E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.0268694926168236E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.9404769678268186E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.8548859014798405E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.770096769545414E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6029262868042506E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.5205459642423425E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.358197854010658E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.2782311997471672E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.1990702675947785E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1207156748061271E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0431680609355812E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.9664280891300034E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.890496447517491E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.8153738507026571E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.7410610413789778E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6675587920693325E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.5948679070074291E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.5229892241741494E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.4519236175046604E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4519236175046604E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.3816719992839568E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3122353227508264E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2436145849326586E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.1758108297366424E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.1088251513257857E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.0426586978128378E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0426586978128378E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9773126753089623E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.9127883523697276E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.9127883523697276E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.849087064886949E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7862102214821296E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7241593094656954E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7241593094656954E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.7241593094656954E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6629359014361692E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.5429783589487135E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5429783589487135E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.5429783589487135E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.4842478663000031E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.4263521805231883E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4263521805231883E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3692934289264756E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3692934289264756E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.3130738831064874E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3130738831064874E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2576959734497193E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.2576959734497193E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2031623055607783E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.2031623055607783E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1494756789413524E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.0966391083104773E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.0966391083104773E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.0446558480401017E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.0446558480401017E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.0446558480401017E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.0446558480401017E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.9352942028475401E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.4326364751702127E-5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.4326364751702127E-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.4326364751702127E-5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.9386269034977186E-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.9386269034977186E-5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.4533109174499138E-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.4533109174499138E-5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7.9767382899267831E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7.9767382899267831E-5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7.9767382899267831E-5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.5089637521700672E-5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.5089637521700672E-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.5089637521700672E-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.5089637521700672E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.0500477266252729E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.600057206804546E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.600057206804546E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C4B0-554F-81F4-B6F15C4F421C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1700575567"/>
+        <c:axId val="1694777743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1700575567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694777743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1694777743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700575567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5102,6 +6834,42 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="43" name="Chart 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260D4B92-9D2B-AC4A-815C-C0E13D0CED26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5426,1386 +7194,3131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="213" workbookViewId="0">
+      <selection activeCell="S130" sqref="S130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>5.9999999999999991E-2</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>B3+0.053 - 0.06</f>
+        <v>5.2999999999999992E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11.371967482767401</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.50809670107747</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.69236811071223003</v>
+      </c>
+      <c r="H3">
+        <f>$E$3*B3^$F$3*C3^$G$3</f>
+        <v>2.1374641270682844E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5.9777044000000004</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.82974546000000005</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.1473058899999999</v>
+      </c>
+      <c r="M3" s="1">
+        <f>$J$3*B3^$K$3*C3^$L$3</f>
+        <v>1.990972097137297E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.25</v>
       </c>
       <c r="B4" s="2">
         <v>5.639439490012145E-2</v>
       </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C67" si="0">B4+0.053 - 0.06</f>
+        <v>4.9394394900121458E-2</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H67" si="1">$E$3*B4^$F$3*C4^$G$3</f>
+        <v>1.8540554885443535E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M67" si="2">$J$3*B4^$K$3*C4^$L$3</f>
+        <v>1.7443226604801083E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.5</v>
       </c>
       <c r="B5" s="2">
         <v>5.263202436111776E-2</v>
       </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5632024361117768E-2</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5815327325602462E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5040759285628534E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.75</v>
       </c>
       <c r="B6" s="2">
         <v>4.9104801980801804E-2</v>
       </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2104801980801798E-2</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3472713248276284E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2947563873010961E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>4.6047875917861303E-2</v>
       </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.9047875917861297E-2</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1606289062087811E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1258229297837451E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1.25</v>
       </c>
       <c r="B8" s="2">
         <v>4.330448073317112E-2</v>
       </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6304480733171121E-2</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.005906607164663E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8409638114687094E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1.5</v>
       </c>
       <c r="B9" s="2">
         <v>4.0952999146293821E-2</v>
       </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3952999146293822E-2</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8278540631487028E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7006689586591711E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1.75</v>
       </c>
       <c r="B10" s="2">
         <v>3.9071813876791976E-2</v>
       </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2071813876791977E-2</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.9052803383478833E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8380196349691223E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2">
         <v>3.7112245887727546E-2</v>
       </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.011224588772754E-2</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0026035692996765E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>6.9863591940296397E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2.25</v>
       </c>
       <c r="B12" s="2">
         <v>3.5466208776913435E-2</v>
       </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8466208776913443E-2</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2898917112831779E-3</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3080205882339365E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2.5</v>
       </c>
       <c r="B13" s="2">
         <v>3.3976937105224481E-2</v>
       </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6976937105224474E-2</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6805282551914502E-3</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>5.7234755130067087E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2.75</v>
       </c>
       <c r="B14" s="2">
         <v>3.256604815309809E-2</v>
       </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5566048153098098E-2</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1340318715272313E-3</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1953052394341738E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" s="2">
         <v>3.139030735965944E-2</v>
       </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4390307359659441E-2</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7013072482675307E-3</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="2"/>
+        <v>4.77421816276363E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>3.25</v>
       </c>
       <c r="B16" s="2">
         <v>3.0214566566220787E-2</v>
       </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3214566566220785E-2</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2890357705008412E-3</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3704721185515959E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>3.5</v>
       </c>
       <c r="B17" s="2">
         <v>2.9195591211907287E-2</v>
       </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2195591211907284E-2</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9481483685516331E-3</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
+        <v>4.034599919046364E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>3.75</v>
       </c>
       <c r="B18" s="2">
         <v>2.817661585759379E-2</v>
       </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1176615857593784E-2</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6223844222204402E-3</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7117789056946709E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" s="2">
         <v>2.7314405942405442E-2</v>
       </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0314405942405439E-2</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>3.358464176647489E-3</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4488261593095741E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>4.25</v>
       </c>
       <c r="B20" s="2">
         <v>2.6530578746779675E-2</v>
       </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9530578746779673E-2</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1277994252591618E-3</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2179020234895449E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>4.5</v>
       </c>
       <c r="B21" s="2">
         <v>2.5746751551153902E-2</v>
       </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8746751551153906E-2</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9058983691072518E-3</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9947215758513251E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>4.75</v>
       </c>
       <c r="B22" s="2">
         <v>2.5041307075090714E-2</v>
       </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8041307075090718E-2</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7136327561650751E-3</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>2.8004856403052165E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>5</v>
       </c>
       <c r="B23" s="2">
         <v>2.4335862599027522E-2</v>
       </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7335862599027529E-2</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>2.528375894517963E-3</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>2.6125327737189685E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>5.25</v>
       </c>
       <c r="B24" s="2">
         <v>2.3787183562089483E-2</v>
       </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6787183562089483E-2</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.389104465787687E-3</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.470694513913197E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>5.5</v>
       </c>
       <c r="B25" s="2">
         <v>2.3160121805588876E-2</v>
       </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6160121805588873E-2</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2350685957552934E-3</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3132551737810973E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>5.75</v>
       </c>
       <c r="B26" s="2">
         <v>2.2611442768650833E-2</v>
       </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5611442768650841E-2</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1047527234312482E-3</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="2"/>
+        <v>2.1795776844614136E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>6</v>
       </c>
       <c r="B27" s="2">
         <v>2.2062763731712794E-2</v>
       </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5062763731712794E-2</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9785812290763751E-3</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0497130096631387E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>6.25</v>
       </c>
       <c r="B28" s="2">
         <v>2.1514084694774761E-2</v>
       </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4514084694774762E-2</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8565311933981109E-3</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.9236641488656733E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>6.5</v>
       </c>
       <c r="B29" s="2">
         <v>2.1122171096961871E-2</v>
       </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4122171096961872E-2</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7718629529832693E-3</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8359671912097084E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>6.75</v>
       </c>
       <c r="B30" s="2">
         <v>2.0651874779586413E-2</v>
       </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3651874779586418E-2</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6730086162869439E-3</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7333044578227944E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>2.025996118177353E-2</v>
       </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3259961181773527E-2</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5929091542497744E-3</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6498983076653109E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>7.25</v>
       </c>
       <c r="B32" s="2">
         <v>1.9946430303523222E-2</v>
       </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2946430303523215E-2</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5303148400729553E-3</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.584579046769802E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>7.5</v>
       </c>
       <c r="B33" s="2">
         <v>1.9476133986147757E-2</v>
       </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2476133986147761E-2</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4388876407489494E-3</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4889445183056159E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>7.75</v>
       </c>
       <c r="B34" s="2">
         <v>1.9162603107897448E-2</v>
       </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2162603107897449E-2</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3795719441840296E-3</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="2"/>
+        <v>1.426752106775557E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>8</v>
       </c>
       <c r="B35" s="2">
         <v>1.8849072229647143E-2</v>
       </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1849072229647151E-2</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3215590901813326E-3</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3658117050453179E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>8.25</v>
       </c>
       <c r="B36" s="2">
         <v>1.845715863183426E-2</v>
       </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1457158631834261E-2</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2508674452307909E-3</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2913980081412527E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>8.5</v>
       </c>
       <c r="B37" s="2">
         <v>1.8143627753583951E-2</v>
       </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1143627753583948E-2</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1957673850497561E-3</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2332774649080629E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>8.75</v>
       </c>
       <c r="B38" s="2">
         <v>1.7908479594896221E-2</v>
       </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0908479594896214E-2</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.155286624205135E-3</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="2"/>
+        <v>1.19051034176912E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>9</v>
       </c>
       <c r="B39" s="2">
         <v>1.7673331436208493E-2</v>
       </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0673331436208494E-2</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1155270263052792E-3</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1484492931423808E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>9.25</v>
       </c>
       <c r="B40" s="2">
         <v>1.728141783839561E-2</v>
       </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0281417838395618E-2</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0508573602510602E-3</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0799176223543437E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>9.5</v>
       </c>
       <c r="B41" s="2">
         <v>1.704626967970788E-2</v>
       </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0046269679707884E-2</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41" s="1">
+        <f t="shared" si="1"/>
+        <v>1.013009535477026E-3</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0397413032615626E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>9.75</v>
       </c>
       <c r="B42" s="2">
         <v>1.6811121521020145E-2</v>
       </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8111215210201497E-3</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7587426794485462E-4</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0002724939005979E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>10</v>
       </c>
       <c r="B43" s="2">
         <v>1.6575973362332415E-2</v>
       </c>
+      <c r="C43" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5759733623324156E-3</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="1">
+        <f t="shared" si="1"/>
+        <v>9.3944911652864738E-4</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6151161817675877E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>10.25</v>
       </c>
       <c r="B44" s="2">
         <v>1.6340825203644688E-2</v>
       </c>
+      <c r="C44" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3408252036446815E-3</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0373159563173118E-4</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2345911594240776E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>10.5</v>
       </c>
       <c r="B45" s="2">
         <v>1.6105677044956957E-2</v>
       </c>
+      <c r="C45" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1056770449569613E-3</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6871917262727912E-4</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8611544426957722E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>10.75</v>
       </c>
       <c r="B46" s="2">
         <v>1.5870528886269223E-2</v>
       </c>
+      <c r="C46" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8705288862692272E-3</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3440926502803883E-4</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4948107886867984E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>11</v>
       </c>
       <c r="B47" s="2">
         <v>1.5713763447144074E-2</v>
       </c>
+      <c r="C47" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7137634471440711E-3</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1192498043954021E-4</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="2"/>
+        <v>8.254524716629761E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>11.25</v>
       </c>
       <c r="B48" s="2">
         <v>1.547861528845634E-2</v>
       </c>
+      <c r="C48" s="1">
+        <f t="shared" si="0"/>
+        <v>8.4786152884563371E-3</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7878004746109654E-4</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="2"/>
+        <v>7.9000139624567671E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>11.5</v>
       </c>
       <c r="B49" s="2">
         <v>1.5321849849331191E-2</v>
       </c>
+      <c r="C49" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3218498493311949E-3</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5706990774995276E-4</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6676213346595589E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>11.75</v>
       </c>
       <c r="B50" s="2">
         <v>1.5086701690643458E-2</v>
       </c>
+      <c r="C50" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0867016906434608E-3</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2508235930727636E-4</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3249583143277777E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>12</v>
       </c>
       <c r="B51" s="2">
         <v>1.4929936251518301E-2</v>
       </c>
+      <c r="C51" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9299362515183047E-3</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0414120741124598E-4</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1004694099173937E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>12.25</v>
       </c>
       <c r="B52" s="2">
         <v>1.477317081239315E-2</v>
       </c>
+      <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7731708123931487E-3</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <f t="shared" si="1"/>
+        <v>6.8350615986619814E-4</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="2"/>
+        <v>6.879145064825115E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>12.5</v>
       </c>
       <c r="B53" s="2">
         <v>1.4616405373267992E-2</v>
       </c>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6164053732679926E-3</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6317634290271709E-4</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6609871250272062E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>12.75</v>
       </c>
       <c r="B54" s="2">
         <v>1.4459639934142843E-2</v>
       </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4596399341428365E-3</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4315086704917583E-4</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4459975033511244E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>13</v>
       </c>
       <c r="B55" s="2">
         <v>1.4302874495017685E-2</v>
       </c>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>7.3028744950176805E-3</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2342882623239737E-4</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="2"/>
+        <v>6.2341781841336293E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>13.25</v>
       </c>
       <c r="B56" s="2">
         <v>1.4146109055892534E-2</v>
       </c>
+      <c r="C56" s="1">
+        <f t="shared" si="0"/>
+        <v>7.1461090558925383E-3</v>
+      </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0400929679250612E-4</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0255312283243902E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>13.5</v>
       </c>
       <c r="B57" s="2">
         <v>1.3989343616767378E-2</v>
       </c>
+      <c r="C57" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9893436167673823E-3</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8489133640120196E-4</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8200587790879755E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>13.75</v>
       </c>
       <c r="B58" s="2">
         <v>1.3832578177642227E-2</v>
       </c>
+      <c r="C58" s="1">
+        <f t="shared" si="0"/>
+        <v>6.8325781776422262E-3</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6607398287108156E-4</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6177630679652866E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>14</v>
       </c>
       <c r="B59" s="2">
         <v>1.3675812738517076E-2</v>
       </c>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>6.675812738517084E-3</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4755625284165271E-4</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4186464216638081E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>14.25</v>
       </c>
       <c r="B60" s="2">
         <v>1.3597430018954495E-2</v>
       </c>
+      <c r="C60" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5974300189544921E-3</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3840943319540717E-4</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="2"/>
+        <v>5.320281002768692E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>14.5</v>
       </c>
       <c r="B61" s="2">
         <v>1.3440664579829344E-2</v>
       </c>
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4406645798293499E-3</v>
+      </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2033924468333065E-4</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1259375431022419E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>14.75</v>
       </c>
       <c r="B62" s="2">
         <v>1.3283899140704186E-2</v>
       </c>
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>6.28389914070418E-3</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" s="1">
+        <f t="shared" si="1"/>
+        <v>5.025661187001043E-4</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="2"/>
+        <v>4.934779432589605E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>15</v>
       </c>
       <c r="B63" s="2">
         <v>1.3205516421141612E-2</v>
       </c>
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2055164211416158E-3</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9379062088784301E-4</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8403957294552595E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>15.25</v>
       </c>
       <c r="B64" s="2">
         <v>1.3048750982016461E-2</v>
       </c>
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0487509820164598E-3</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7646107340375748E-4</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="2"/>
+        <v>4.654020792899783E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>15.5</v>
       </c>
       <c r="B65" s="2">
         <v>1.2891985542891305E-2</v>
       </c>
+      <c r="C65" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8919855428913037E-3</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5942585806247645E-4</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4708382750701552E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>15.75</v>
       </c>
       <c r="B66" s="2">
         <v>1.2813602823328728E-2</v>
       </c>
+      <c r="C66" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8136028233287257E-3</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5101826774606639E-4</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3804451315531708E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>16</v>
       </c>
       <c r="B67" s="2">
         <v>1.2735220103766154E-2</v>
       </c>
+      <c r="C67" s="1">
+        <f t="shared" si="0"/>
+        <v>5.7352201037661477E-3</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4268382748586339E-4</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2908512633060033E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>16.25</v>
       </c>
       <c r="B68" s="2">
         <v>1.2578454664640996E-2</v>
       </c>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68:C131" si="3">B68+0.053 - 0.06</f>
+        <v>5.5784546646409916E-3</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" s="1">
+        <f t="shared" ref="H68:H131" si="4">$E$3*B68^$F$3*C68^$G$3</f>
+        <v>4.2623379866087624E-4</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" ref="M68:M131" si="5">$J$3*B68^$K$3*C68^$L$3</f>
+        <v>4.1140630138315493E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>16.5</v>
       </c>
       <c r="B69" s="2">
         <v>1.2500071945078422E-2</v>
       </c>
+      <c r="C69" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5000719450784274E-3</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1811790468890259E-4</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0268694926168236E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>16.75</v>
       </c>
       <c r="B70" s="2">
         <v>1.2421689225515845E-2</v>
       </c>
+      <c r="C70" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4216892255158494E-3</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H70" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1007454973181716E-4</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9404769678268186E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>17</v>
       </c>
       <c r="B71" s="2">
         <v>1.2343306505953264E-2</v>
       </c>
+      <c r="C71" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3433065059532714E-3</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H71" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0210357439150702E-4</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8548859014798405E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>17.25</v>
       </c>
       <c r="B72" s="2">
         <v>1.2264923786390689E-2</v>
       </c>
+      <c r="C72" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2649237863906934E-3</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H72" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9420481636015102E-4</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="5"/>
+        <v>3.770096769545414E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>17.5</v>
       </c>
       <c r="B73" s="2">
         <v>1.2108158347265538E-2</v>
       </c>
+      <c r="C73" s="1">
+        <f t="shared" si="3"/>
+        <v>5.1081583472655373E-3</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H73" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7862328757784947E-4</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="5"/>
+        <v>3.6029262868042506E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>17.75</v>
       </c>
       <c r="B74" s="2">
         <v>1.2029775627702957E-2</v>
       </c>
+      <c r="C74" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0297756277029593E-3</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7094017632673359E-4</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5205459642423425E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>18</v>
       </c>
       <c r="B75" s="2">
         <v>1.1873010188577806E-2</v>
       </c>
+      <c r="C75" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8730101885778032E-3</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5578838251950024E-4</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="5"/>
+        <v>3.358197854010658E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>18.25</v>
       </c>
       <c r="B76" s="2">
         <v>1.1794627469015231E-2</v>
       </c>
+      <c r="C76" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7946274690152391E-3</v>
+      </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H76" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4831933760198964E-4</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2782311997471672E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>18.5</v>
       </c>
       <c r="B77" s="2">
         <v>1.1716244749452655E-2</v>
       </c>
+      <c r="C77" s="1">
+        <f t="shared" si="3"/>
+        <v>4.716244749452661E-3</v>
+      </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H77" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4092127898903288E-4</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1990702675947785E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>18.75</v>
       </c>
       <c r="B78" s="2">
         <v>1.1637862029890074E-2</v>
       </c>
+      <c r="C78" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6378620298900691E-3</v>
+      </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H78" s="1">
+        <f t="shared" si="4"/>
+        <v>3.335940149875921E-4</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1207156748061271E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>19</v>
       </c>
       <c r="B79" s="2">
         <v>1.1559479310327499E-2</v>
       </c>
+      <c r="C79" s="1">
+        <f t="shared" si="3"/>
+        <v>4.559479310327505E-3</v>
+      </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2633734926094975E-4</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0431680609355812E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>19.25</v>
       </c>
       <c r="B80" s="2">
         <v>1.1481096590764923E-2</v>
       </c>
+      <c r="C80" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4810965907649269E-3</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H80" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1915108055436694E-4</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9664280891300034E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>19.5</v>
       </c>
       <c r="B81" s="2">
         <v>1.1402713871202348E-2</v>
       </c>
+      <c r="C81" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4027138712023489E-3</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H81" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1203500239829814E-4</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" si="5"/>
+        <v>2.890496447517491E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>19.75</v>
       </c>
       <c r="B82" s="2">
         <v>1.1324331151639765E-2</v>
       </c>
+      <c r="C82" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3243311516397709E-3</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H82" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0498890278685093E-4</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8153738507026571E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>20</v>
       </c>
       <c r="B83" s="2">
         <v>1.124594843207719E-2</v>
       </c>
+      <c r="C83" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2459484320771929E-3</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H83" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9801256382896361E-4</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7410610413789778E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>20.25</v>
       </c>
       <c r="B84" s="2">
         <v>1.1167565712514616E-2</v>
       </c>
+      <c r="C84" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1675657125146148E-3</v>
+      </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H84" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9110576136941868E-4</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6675587920693325E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>20.5</v>
       </c>
       <c r="B85" s="2">
         <v>1.108918299295204E-2</v>
       </c>
+      <c r="C85" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0891829929520368E-3</v>
+      </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H85" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8426826457648736E-4</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5948679070074291E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>20.75</v>
       </c>
       <c r="B86" s="2">
         <v>1.1010800273389458E-2</v>
       </c>
+      <c r="C86" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0108002733894588E-3</v>
+      </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H86" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7749983549255937E-4</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5229892241741494E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>21</v>
       </c>
       <c r="B87" s="2">
         <v>1.0932417553826883E-2</v>
       </c>
+      <c r="C87" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9324175538268807E-3</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H87" s="1">
+        <f t="shared" si="4"/>
+        <v>2.70800228543655E-4</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4519236175046604E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>21.25</v>
       </c>
       <c r="B88" s="2">
         <v>1.0932417553826883E-2</v>
       </c>
+      <c r="C88" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9324175538268807E-3</v>
+      </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H88" s="1">
+        <f t="shared" si="4"/>
+        <v>2.70800228543655E-4</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4519236175046604E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>21.5</v>
       </c>
       <c r="B89" s="2">
         <v>1.0854034834264307E-2</v>
       </c>
+      <c r="C89" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8540348342643027E-3</v>
+      </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H89" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6416919000317706E-4</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3816719992839568E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>21.75</v>
       </c>
       <c r="B90" s="2">
         <v>1.0775652114701733E-2</v>
       </c>
+      <c r="C90" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7756521147017386E-3</v>
+      </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H90" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5760645740462168E-4</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="5"/>
+        <v>2.3122353227508264E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>22</v>
       </c>
       <c r="B91" s="2">
         <v>1.0697269395139151E-2</v>
       </c>
+      <c r="C91" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6972693951391467E-3</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H91" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5111175889724993E-4</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2436145849326586E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>22.25</v>
       </c>
       <c r="B92" s="2">
         <v>1.0618886675576575E-2</v>
       </c>
+      <c r="C92" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6188866755765825E-3</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H92" s="1">
+        <f t="shared" si="4"/>
+        <v>2.4468481253788702E-4</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1758108297366424E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>22.5</v>
       </c>
       <c r="B93" s="2">
         <v>1.0540503956014E-2</v>
       </c>
+      <c r="C93" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5405039560140045E-3</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H93" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3832532551099414E-4</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1088251513257857E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>22.75</v>
       </c>
       <c r="B94" s="2">
         <v>1.0462121236451426E-2</v>
       </c>
+      <c r="C94" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4621212364514264E-3</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H94" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3203299326808444E-4</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0426586978128378E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>23</v>
       </c>
       <c r="B95" s="2">
         <v>1.0462121236451426E-2</v>
       </c>
+      <c r="C95" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4621212364514264E-3</v>
+      </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H95" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3203299326808444E-4</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="5"/>
+        <v>2.0426586978128378E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>23.25</v>
       </c>
       <c r="B96" s="2">
         <v>1.0383738516888842E-2</v>
       </c>
+      <c r="C96" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3837385168888484E-3</v>
+      </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2580749857613395E-4</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9773126753089623E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>23.5</v>
       </c>
       <c r="B97" s="2">
         <v>1.0305355797326268E-2</v>
       </c>
+      <c r="C97" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3053557973262704E-3</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H97" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1964851046311692E-4</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9127883523697276E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>23.75</v>
       </c>
       <c r="B98" s="2">
         <v>1.0305355797326268E-2</v>
       </c>
+      <c r="C98" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3053557973262704E-3</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H98" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1964851046311692E-4</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9127883523697276E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>24</v>
       </c>
       <c r="B99" s="2">
         <v>1.0226973077763692E-2</v>
       </c>
+      <c r="C99" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2269730777636924E-3</v>
+      </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H99" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1355568304689922E-4</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="5"/>
+        <v>1.849087064886949E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>24.25</v>
       </c>
       <c r="B100" s="2">
         <v>1.0148590358201117E-2</v>
       </c>
+      <c r="C100" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1485903582011143E-3</v>
+      </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H100" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0752865423154048E-4</v>
+      </c>
+      <c r="M100" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7862102214821296E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>24.5</v>
       </c>
       <c r="B101" s="2">
         <v>1.0070207638638536E-2</v>
       </c>
+      <c r="C101" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0702076386385363E-3</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H101" s="1">
+        <f t="shared" si="4"/>
+        <v>2.015670442524204E-4</v>
+      </c>
+      <c r="M101" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7241593094656954E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>24.75</v>
       </c>
       <c r="B102" s="2">
         <v>1.0070207638638536E-2</v>
       </c>
+      <c r="C102" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0702076386385363E-3</v>
+      </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H102" s="1">
+        <f t="shared" si="4"/>
+        <v>2.015670442524204E-4</v>
+      </c>
+      <c r="M102" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7241593094656954E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>25</v>
       </c>
       <c r="B103" s="2">
         <v>1.0070207638638536E-2</v>
       </c>
+      <c r="C103" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0702076386385363E-3</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H103" s="1">
+        <f t="shared" si="4"/>
+        <v>2.015670442524204E-4</v>
+      </c>
+      <c r="M103" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7241593094656954E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>25.25</v>
       </c>
       <c r="B104" s="2">
         <v>9.9918249190759593E-3</v>
       </c>
+      <c r="C104" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9918249190759583E-3</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H104" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9567045404849108E-4</v>
+      </c>
+      <c r="M104" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6629359014361692E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>25.5</v>
       </c>
       <c r="B105" s="2">
         <v>9.8350594799508102E-3</v>
       </c>
+      <c r="C105" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8350594799508161E-3</v>
+      </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H105" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8407062905516125E-4</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5429783589487135E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>25.75</v>
       </c>
       <c r="B106" s="2">
         <v>9.8350594799508102E-3</v>
       </c>
+      <c r="C106" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8350594799508161E-3</v>
+      </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H106" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8407062905516125E-4</v>
+      </c>
+      <c r="M106" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5429783589487135E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>26</v>
       </c>
       <c r="B107" s="2">
         <v>9.8350594799508102E-3</v>
       </c>
+      <c r="C107" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8350594799508161E-3</v>
+      </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H107" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8407062905516125E-4</v>
+      </c>
+      <c r="M107" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5429783589487135E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>26.25</v>
       </c>
       <c r="B108" s="2">
         <v>9.7566767603882339E-3</v>
       </c>
+      <c r="C108" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7566767603882381E-3</v>
+      </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H108" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7836648205008508E-4</v>
+      </c>
+      <c r="M108" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4842478663000031E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>26.5</v>
       </c>
       <c r="B109" s="2">
         <v>9.6782940408256524E-3</v>
       </c>
+      <c r="C109" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6782940408256461E-3</v>
+      </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H109" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7272552544710882E-4</v>
+      </c>
+      <c r="M109" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4263521805231883E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>26.75</v>
       </c>
       <c r="B110" s="2">
         <v>9.6782940408256524E-3</v>
       </c>
+      <c r="C110" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6782940408256461E-3</v>
+      </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H110" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7272552544710882E-4</v>
+      </c>
+      <c r="M110" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4263521805231883E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>27</v>
       </c>
       <c r="B111" s="2">
         <v>9.5999113212630778E-3</v>
       </c>
+      <c r="C111" s="1">
+        <f t="shared" si="3"/>
+        <v>2.599911321263082E-3</v>
+      </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H111" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6714723117428076E-4</v>
+      </c>
+      <c r="M111" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3692934289264756E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>27.25</v>
       </c>
       <c r="B112" s="2">
         <v>9.5999113212630778E-3</v>
       </c>
+      <c r="C112" s="1">
+        <f t="shared" si="3"/>
+        <v>2.599911321263082E-3</v>
+      </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H112" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6714723117428076E-4</v>
+      </c>
+      <c r="M112" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3692934289264756E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>27.5</v>
       </c>
       <c r="B113" s="2">
         <v>9.5215286017005015E-3</v>
       </c>
+      <c r="C113" s="1">
+        <f t="shared" si="3"/>
+        <v>2.521528601700504E-3</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H113" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6163103666628025E-4</v>
+      </c>
+      <c r="M113" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3130738831064874E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>27.75</v>
       </c>
       <c r="B114" s="2">
         <v>9.5215286017005015E-3</v>
       </c>
+      <c r="C114" s="1">
+        <f t="shared" si="3"/>
+        <v>2.521528601700504E-3</v>
+      </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H114" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6163103666628025E-4</v>
+      </c>
+      <c r="M114" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3130738831064874E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>28</v>
       </c>
       <c r="B115" s="2">
         <v>9.443145882137927E-3</v>
       </c>
+      <c r="C115" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4431458821379259E-3</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H115" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5617634098113325E-4</v>
+      </c>
+      <c r="M115" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2576959734497193E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>28.25</v>
       </c>
       <c r="B116" s="2">
         <v>9.443145882137927E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4431458821379259E-3</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5617634098113325E-4</v>
+      </c>
+      <c r="M116" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2576959734497193E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>28.5</v>
       </c>
       <c r="B117" s="2">
         <v>9.3647631625753455E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3647631625753479E-3</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5078250034146999E-4</v>
+      </c>
+      <c r="M117" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2031623055607783E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>28.75</v>
       </c>
       <c r="B118" s="2">
         <v>9.3647631625753455E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3647631625753479E-3</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5078250034146999E-4</v>
+      </c>
+      <c r="M118" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2031623055607783E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>29</v>
       </c>
       <c r="B119" s="2">
         <v>9.2863804430127692E-3</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2863804430127699E-3</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4544882299393527E-4</v>
+      </c>
+      <c r="M119" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1494756789413524E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>29.25</v>
       </c>
       <c r="B120" s="2">
         <v>9.2079977234501946E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C120" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2079977234501919E-3</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" si="4"/>
+        <v>1.401745632564424E-4</v>
+      </c>
+      <c r="M120" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0966391083104773E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>29.5</v>
       </c>
       <c r="B121" s="2">
         <v>9.2079977234501946E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C121" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2079977234501919E-3</v>
+      </c>
+      <c r="H121" s="1">
+        <f t="shared" si="4"/>
+        <v>1.401745632564424E-4</v>
+      </c>
+      <c r="M121" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0966391083104773E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>29.75</v>
       </c>
       <c r="B122" s="2">
         <v>9.1296150038876183E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C122" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1296150038876208E-3</v>
+      </c>
+      <c r="H122" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3495891459271712E-4</v>
+      </c>
+      <c r="M122" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0446558480401017E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>30</v>
       </c>
       <c r="B123" s="2">
         <v>9.1296150038876183E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C123" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1296150038876208E-3</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3495891459271712E-4</v>
+      </c>
+      <c r="M123" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0446558480401017E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>30.25</v>
       </c>
       <c r="B124" s="2">
         <v>9.1296150038876183E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1296150038876208E-3</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3495891459271712E-4</v>
+      </c>
+      <c r="M124" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0446558480401017E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>30.5</v>
       </c>
       <c r="B125" s="2">
         <v>9.1296150038876183E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C125" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1296150038876208E-3</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3495891459271712E-4</v>
+      </c>
+      <c r="M125" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0446558480401017E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>30.75</v>
       </c>
       <c r="B126" s="2">
         <v>9.0512322843250368E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C126" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0512322843250358E-3</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2980100151491566E-4</v>
+      </c>
+      <c r="M126" s="1">
+        <f t="shared" si="5"/>
+        <v>9.9352942028475401E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>31</v>
       </c>
       <c r="B127" s="2">
         <v>8.9728495647624622E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C127" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9728495647624647E-3</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2469987006536403E-4</v>
+      </c>
+      <c r="M127" s="1">
+        <f t="shared" si="5"/>
+        <v>9.4326364751702127E-5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>31.25</v>
       </c>
       <c r="B128" s="2">
         <v>8.9728495647624622E-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9728495647624647E-3</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2469987006536403E-4</v>
+      </c>
+      <c r="M128" s="1">
+        <f t="shared" si="5"/>
+        <v>9.4326364751702127E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>31.5</v>
       </c>
       <c r="B129" s="2">
         <v>8.9728495647624622E-3</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9728495647624647E-3</v>
+      </c>
+      <c r="H129" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2469987006536403E-4</v>
+      </c>
+      <c r="M129" s="1">
+        <f t="shared" si="5"/>
+        <v>9.4326364751702127E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>31.75</v>
       </c>
       <c r="B130" s="2">
         <v>8.894466845199886E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8944668451998867E-3</v>
+      </c>
+      <c r="H130" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1965447656382285E-4</v>
+      </c>
+      <c r="M130" s="1">
+        <f t="shared" si="5"/>
+        <v>8.9386269034977186E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>32</v>
       </c>
       <c r="B131" s="2">
         <v>8.894466845199886E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8944668451998867E-3</v>
+      </c>
+      <c r="H131" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1965447656382285E-4</v>
+      </c>
+      <c r="M131" s="1">
+        <f t="shared" si="5"/>
+        <v>8.9386269034977186E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>32.25</v>
       </c>
       <c r="B132" s="2">
         <v>8.8160841256373114E-3</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" s="1">
+        <f t="shared" ref="C132:C143" si="6">B132+0.053 - 0.06</f>
+        <v>1.8160841256373156E-3</v>
+      </c>
+      <c r="H132" s="1">
+        <f t="shared" ref="H132:H143" si="7">$E$3*B132^$F$3*C132^$G$3</f>
+        <v>1.1466367422200288E-4</v>
+      </c>
+      <c r="M132" s="1">
+        <f t="shared" ref="M132:M143" si="8">$J$3*B132^$K$3*C132^$L$3</f>
+        <v>8.4533109174499138E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>32.5</v>
       </c>
       <c r="B133" s="2">
         <v>8.8160841256373114E-3</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8160841256373156E-3</v>
+      </c>
+      <c r="H133" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1466367422200288E-4</v>
+      </c>
+      <c r="M133" s="1">
+        <f t="shared" si="8"/>
+        <v>8.4533109174499138E-5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>32.75</v>
       </c>
       <c r="B134" s="2">
         <v>8.7377014060747299E-3</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7377014060747306E-3</v>
+      </c>
+      <c r="H134" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0972619711482757E-4</v>
+      </c>
+      <c r="M134" s="1">
+        <f t="shared" si="8"/>
+        <v>7.9767382899267831E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>33</v>
       </c>
       <c r="B135" s="2">
         <v>8.7377014060747299E-3</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7377014060747306E-3</v>
+      </c>
+      <c r="H135" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0972619711482757E-4</v>
+      </c>
+      <c r="M135" s="1">
+        <f t="shared" si="8"/>
+        <v>7.9767382899267831E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>33.25</v>
       </c>
       <c r="B136" s="2">
         <v>8.7377014060747299E-3</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7377014060747306E-3</v>
+      </c>
+      <c r="H136" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0972619711482757E-4</v>
+      </c>
+      <c r="M136" s="1">
+        <f t="shared" si="8"/>
+        <v>7.9767382899267831E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>33.5</v>
       </c>
       <c r="B137" s="2">
         <v>8.6593186865121536E-3</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6593186865121526E-3</v>
+      </c>
+      <c r="H137" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0484064084775233E-4</v>
+      </c>
+      <c r="M137" s="1">
+        <f t="shared" si="8"/>
+        <v>7.5089637521700672E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>33.75</v>
       </c>
       <c r="B138" s="2">
         <v>8.6593186865121536E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6593186865121526E-3</v>
+      </c>
+      <c r="H138" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0484064084775233E-4</v>
+      </c>
+      <c r="M138" s="1">
+        <f t="shared" si="8"/>
+        <v>7.5089637521700672E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>34</v>
       </c>
       <c r="B139" s="2">
         <v>8.6593186865121536E-3</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6593186865121526E-3</v>
+      </c>
+      <c r="H139" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0484064084775233E-4</v>
+      </c>
+      <c r="M139" s="1">
+        <f t="shared" si="8"/>
+        <v>7.5089637521700672E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>34.25</v>
       </c>
       <c r="B140" s="2">
         <v>8.6593186865121536E-3</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6593186865121526E-3</v>
+      </c>
+      <c r="H140" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0484064084775233E-4</v>
+      </c>
+      <c r="M140" s="1">
+        <f t="shared" si="8"/>
+        <v>7.5089637521700672E-5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>34.5</v>
       </c>
       <c r="B141" s="2">
         <v>8.580935966949579E-3</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5809359669495815E-3</v>
+      </c>
+      <c r="H141" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0000543905588848E-4</v>
+      </c>
+      <c r="M141" s="1">
+        <f t="shared" si="8"/>
+        <v>7.0500477266252729E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>34.75</v>
       </c>
       <c r="B142" s="2">
         <v>8.5025532473870045E-3</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5025532473870035E-3</v>
+      </c>
+      <c r="H142" s="1">
+        <f t="shared" si="7"/>
+        <v>9.5218834591365278E-5</v>
+      </c>
+      <c r="M142" s="1">
+        <f t="shared" si="8"/>
+        <v>6.600057206804546E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>35</v>
       </c>
       <c r="B143" s="2">
         <v>8.5025532473870045E-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5025532473870035E-3</v>
+      </c>
+      <c r="H143" s="1">
+        <f t="shared" si="7"/>
+        <v>9.5218834591365278E-5</v>
+      </c>
+      <c r="M143" s="1">
+        <f t="shared" si="8"/>
+        <v>6.600057206804546E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6818,7 +10331,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6830,28 +10343,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E861FCB14FFF744AABFFEF7AE2C782CA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5310c521c3c81a91366d828d57068640">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0e1cfed-9c19-4f72-8d75-cd9f9b9ff4ab" xmlns:ns4="5262057f-2399-4552-a526-169271e68a77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="194f836160a901edb9884ec0a9aa4eda" ns3:_="" ns4:_="">
     <xsd:import namespace="e0e1cfed-9c19-4f72-8d75-cd9f9b9ff4ab"/>
@@ -7074,32 +10572,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA95C9E-4B2F-4AB1-9D6E-25B8E9B0167F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e0e1cfed-9c19-4f72-8d75-cd9f9b9ff4ab"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5262057f-2399-4552-a526-169271e68a77"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9907F1F-20AC-4176-9A5A-E3907ECED563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A4477DE-C866-4D15-B360-381E4CA59F1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7116,4 +10604,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9907F1F-20AC-4176-9A5A-E3907ECED563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FA95C9E-4B2F-4AB1-9D6E-25B8E9B0167F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e0e1cfed-9c19-4f72-8d75-cd9f9b9ff4ab"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5262057f-2399-4552-a526-169271e68a77"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Lab 5/KineticData2.xlsx
+++ b/Lab 5/KineticData2.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanporter/PycharmProjects/che291/Lab 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\che291\Lab 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC5E54E-FFFA-4E46-8ACB-0331445D2D24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE424B9-351D-42E9-93EE-CF0DD55310A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Time (min)</t>
   </si>
@@ -192,6 +190,438 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25.75</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32.25</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$H$3:$H$143</c:f>
@@ -199,427 +629,427 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
                 <c:pt idx="0">
-                  <c:v>2.1374641270682844E-2</c:v>
+                  <c:v>-2.1374641270682844E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8540554885443535E-2</c:v>
+                  <c:v>-1.8540554885443535E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5815327325602462E-2</c:v>
+                  <c:v>-1.5815327325602462E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3472713248276284E-2</c:v>
+                  <c:v>-1.3472713248276284E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1606289062087811E-2</c:v>
+                  <c:v>-1.1606289062087811E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.005906607164663E-2</c:v>
+                  <c:v>-1.005906607164663E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.8278540631487028E-3</c:v>
+                  <c:v>-8.8278540631487028E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9052803383478833E-3</c:v>
+                  <c:v>-7.9052803383478833E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0026035692996765E-3</c:v>
+                  <c:v>-7.0026035692996765E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2898917112831779E-3</c:v>
+                  <c:v>-6.2898917112831779E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.6805282551914502E-3</c:v>
+                  <c:v>-5.6805282551914502E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1340318715272313E-3</c:v>
+                  <c:v>-5.1340318715272313E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7013072482675307E-3</c:v>
+                  <c:v>-4.7013072482675307E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2890357705008412E-3</c:v>
+                  <c:v>-4.2890357705008412E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9481483685516331E-3</c:v>
+                  <c:v>-3.9481483685516331E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6223844222204402E-3</c:v>
+                  <c:v>-3.6223844222204402E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.358464176647489E-3</c:v>
+                  <c:v>-3.358464176647489E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1277994252591618E-3</c:v>
+                  <c:v>-3.1277994252591618E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9058983691072518E-3</c:v>
+                  <c:v>-2.9058983691072518E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7136327561650751E-3</c:v>
+                  <c:v>-2.7136327561650751E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.528375894517963E-3</c:v>
+                  <c:v>-2.528375894517963E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.389104465787687E-3</c:v>
+                  <c:v>-2.389104465787687E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2350685957552934E-3</c:v>
+                  <c:v>-2.2350685957552934E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1047527234312482E-3</c:v>
+                  <c:v>-2.1047527234312482E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9785812290763751E-3</c:v>
+                  <c:v>-1.9785812290763751E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8565311933981109E-3</c:v>
+                  <c:v>-1.8565311933981109E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7718629529832693E-3</c:v>
+                  <c:v>-1.7718629529832693E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6730086162869439E-3</c:v>
+                  <c:v>-1.6730086162869439E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5929091542497744E-3</c:v>
+                  <c:v>-1.5929091542497744E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5303148400729553E-3</c:v>
+                  <c:v>-1.5303148400729553E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4388876407489494E-3</c:v>
+                  <c:v>-1.4388876407489494E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3795719441840296E-3</c:v>
+                  <c:v>-1.3795719441840296E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3215590901813326E-3</c:v>
+                  <c:v>-1.3215590901813326E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2508674452307909E-3</c:v>
+                  <c:v>-1.2508674452307909E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1957673850497561E-3</c:v>
+                  <c:v>-1.1957673850497561E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.155286624205135E-3</c:v>
+                  <c:v>-1.155286624205135E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1155270263052792E-3</c:v>
+                  <c:v>-1.1155270263052792E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0508573602510602E-3</c:v>
+                  <c:v>-1.0508573602510602E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.013009535477026E-3</c:v>
+                  <c:v>-1.013009535477026E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.7587426794485462E-4</c:v>
+                  <c:v>-9.7587426794485462E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.3944911652864738E-4</c:v>
+                  <c:v>-9.3944911652864738E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0373159563173118E-4</c:v>
+                  <c:v>-9.0373159563173118E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.6871917262727912E-4</c:v>
+                  <c:v>-8.6871917262727912E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.3440926502803883E-4</c:v>
+                  <c:v>-8.3440926502803883E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.1192498043954021E-4</c:v>
+                  <c:v>-8.1192498043954021E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.7878004746109654E-4</c:v>
+                  <c:v>-7.7878004746109654E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.5706990774995276E-4</c:v>
+                  <c:v>-7.5706990774995276E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.2508235930727636E-4</c:v>
+                  <c:v>-7.2508235930727636E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.0414120741124598E-4</c:v>
+                  <c:v>-7.0414120741124598E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.8350615986619814E-4</c:v>
+                  <c:v>-6.8350615986619814E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6317634290271709E-4</c:v>
+                  <c:v>-6.6317634290271709E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.4315086704917583E-4</c:v>
+                  <c:v>-6.4315086704917583E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.2342882623239737E-4</c:v>
+                  <c:v>-6.2342882623239737E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0400929679250612E-4</c:v>
+                  <c:v>-6.0400929679250612E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.8489133640120196E-4</c:v>
+                  <c:v>-5.8489133640120196E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.6607398287108156E-4</c:v>
+                  <c:v>-5.6607398287108156E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.4755625284165271E-4</c:v>
+                  <c:v>-5.4755625284165271E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.3840943319540717E-4</c:v>
+                  <c:v>-5.3840943319540717E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.2033924468333065E-4</c:v>
+                  <c:v>-5.2033924468333065E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.025661187001043E-4</c:v>
+                  <c:v>-5.025661187001043E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9379062088784301E-4</c:v>
+                  <c:v>-4.9379062088784301E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.7646107340375748E-4</c:v>
+                  <c:v>-4.7646107340375748E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.5942585806247645E-4</c:v>
+                  <c:v>-4.5942585806247645E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.5101826774606639E-4</c:v>
+                  <c:v>-4.5101826774606639E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.4268382748586339E-4</c:v>
+                  <c:v>-4.4268382748586339E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.2623379866087624E-4</c:v>
+                  <c:v>-4.2623379866087624E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.1811790468890259E-4</c:v>
+                  <c:v>-4.1811790468890259E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.1007454973181716E-4</c:v>
+                  <c:v>-4.1007454973181716E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.0210357439150702E-4</c:v>
+                  <c:v>-4.0210357439150702E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.9420481636015102E-4</c:v>
+                  <c:v>-3.9420481636015102E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.7862328757784947E-4</c:v>
+                  <c:v>-3.7862328757784947E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.7094017632673359E-4</c:v>
+                  <c:v>-3.7094017632673359E-4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.5578838251950024E-4</c:v>
+                  <c:v>-3.5578838251950024E-4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.4831933760198964E-4</c:v>
+                  <c:v>-3.4831933760198964E-4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.4092127898903288E-4</c:v>
+                  <c:v>-3.4092127898903288E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.335940149875921E-4</c:v>
+                  <c:v>-3.335940149875921E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.2633734926094975E-4</c:v>
+                  <c:v>-3.2633734926094975E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.1915108055436694E-4</c:v>
+                  <c:v>-3.1915108055436694E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.1203500239829814E-4</c:v>
+                  <c:v>-3.1203500239829814E-4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.0498890278685093E-4</c:v>
+                  <c:v>-3.0498890278685093E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.9801256382896361E-4</c:v>
+                  <c:v>-2.9801256382896361E-4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.9110576136941868E-4</c:v>
+                  <c:v>-2.9110576136941868E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.8426826457648736E-4</c:v>
+                  <c:v>-2.8426826457648736E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.7749983549255937E-4</c:v>
+                  <c:v>-2.7749983549255937E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.70800228543655E-4</c:v>
+                  <c:v>-2.70800228543655E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.70800228543655E-4</c:v>
+                  <c:v>-2.70800228543655E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.6416919000317706E-4</c:v>
+                  <c:v>-2.6416919000317706E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.5760645740462168E-4</c:v>
+                  <c:v>-2.5760645740462168E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.5111175889724993E-4</c:v>
+                  <c:v>-2.5111175889724993E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4468481253788702E-4</c:v>
+                  <c:v>-2.4468481253788702E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.3832532551099414E-4</c:v>
+                  <c:v>-2.3832532551099414E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3203299326808444E-4</c:v>
+                  <c:v>-2.3203299326808444E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.3203299326808444E-4</c:v>
+                  <c:v>-2.3203299326808444E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.2580749857613395E-4</c:v>
+                  <c:v>-2.2580749857613395E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.1964851046311692E-4</c:v>
+                  <c:v>-2.1964851046311692E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.1964851046311692E-4</c:v>
+                  <c:v>-2.1964851046311692E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.1355568304689922E-4</c:v>
+                  <c:v>-2.1355568304689922E-4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.0752865423154048E-4</c:v>
+                  <c:v>-2.0752865423154048E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.015670442524204E-4</c:v>
+                  <c:v>-2.015670442524204E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2.015670442524204E-4</c:v>
+                  <c:v>-2.015670442524204E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.015670442524204E-4</c:v>
+                  <c:v>-2.015670442524204E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.9567045404849108E-4</c:v>
+                  <c:v>-1.9567045404849108E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.8407062905516125E-4</c:v>
+                  <c:v>-1.8407062905516125E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.8407062905516125E-4</c:v>
+                  <c:v>-1.8407062905516125E-4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.8407062905516125E-4</c:v>
+                  <c:v>-1.8407062905516125E-4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.7836648205008508E-4</c:v>
+                  <c:v>-1.7836648205008508E-4</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.7272552544710882E-4</c:v>
+                  <c:v>-1.7272552544710882E-4</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.7272552544710882E-4</c:v>
+                  <c:v>-1.7272552544710882E-4</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.6714723117428076E-4</c:v>
+                  <c:v>-1.6714723117428076E-4</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.6714723117428076E-4</c:v>
+                  <c:v>-1.6714723117428076E-4</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.6163103666628025E-4</c:v>
+                  <c:v>-1.6163103666628025E-4</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.6163103666628025E-4</c:v>
+                  <c:v>-1.6163103666628025E-4</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.5617634098113325E-4</c:v>
+                  <c:v>-1.5617634098113325E-4</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.5617634098113325E-4</c:v>
+                  <c:v>-1.5617634098113325E-4</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.5078250034146999E-4</c:v>
+                  <c:v>-1.5078250034146999E-4</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.5078250034146999E-4</c:v>
+                  <c:v>-1.5078250034146999E-4</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.4544882299393527E-4</c:v>
+                  <c:v>-1.4544882299393527E-4</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.401745632564424E-4</c:v>
+                  <c:v>-1.401745632564424E-4</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.401745632564424E-4</c:v>
+                  <c:v>-1.401745632564424E-4</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.3495891459271712E-4</c:v>
+                  <c:v>-1.3495891459271712E-4</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.3495891459271712E-4</c:v>
+                  <c:v>-1.3495891459271712E-4</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.3495891459271712E-4</c:v>
+                  <c:v>-1.3495891459271712E-4</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.3495891459271712E-4</c:v>
+                  <c:v>-1.3495891459271712E-4</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.2980100151491566E-4</c:v>
+                  <c:v>-1.2980100151491566E-4</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.2469987006536403E-4</c:v>
+                  <c:v>-1.2469987006536403E-4</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.2469987006536403E-4</c:v>
+                  <c:v>-1.2469987006536403E-4</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.2469987006536403E-4</c:v>
+                  <c:v>-1.2469987006536403E-4</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.1965447656382285E-4</c:v>
+                  <c:v>-1.1965447656382285E-4</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.1965447656382285E-4</c:v>
+                  <c:v>-1.1965447656382285E-4</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.1466367422200288E-4</c:v>
+                  <c:v>-1.1466367422200288E-4</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.1466367422200288E-4</c:v>
+                  <c:v>-1.1466367422200288E-4</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.0972619711482757E-4</c:v>
+                  <c:v>-1.0972619711482757E-4</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.0972619711482757E-4</c:v>
+                  <c:v>-1.0972619711482757E-4</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.0972619711482757E-4</c:v>
+                  <c:v>-1.0972619711482757E-4</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.0484064084775233E-4</c:v>
+                  <c:v>-1.0484064084775233E-4</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>1.0484064084775233E-4</c:v>
+                  <c:v>-1.0484064084775233E-4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.0484064084775233E-4</c:v>
+                  <c:v>-1.0484064084775233E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.0484064084775233E-4</c:v>
+                  <c:v>-1.0484064084775233E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.0000543905588848E-4</c:v>
+                  <c:v>-1.0000543905588848E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>9.5218834591365278E-5</c:v>
+                  <c:v>-9.5218834591365278E-5</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9.5218834591365278E-5</c:v>
+                  <c:v>-9.5218834591365278E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,6 +1076,438 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25.75</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32.25</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$M$3:$M$143</c:f>
@@ -653,427 +1515,427 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
                 <c:pt idx="0">
-                  <c:v>1.990972097137297E-2</c:v>
+                  <c:v>-1.990972097137297E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7443226604801083E-2</c:v>
+                  <c:v>-1.7443226604801083E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5040759285628534E-2</c:v>
+                  <c:v>-1.5040759285628534E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2947563873010961E-2</c:v>
+                  <c:v>-1.2947563873010961E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1258229297837451E-2</c:v>
+                  <c:v>-1.1258229297837451E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8409638114687094E-3</c:v>
+                  <c:v>-9.8409638114687094E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7006689586591711E-3</c:v>
+                  <c:v>-8.7006689586591711E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.8380196349691223E-3</c:v>
+                  <c:v>-7.8380196349691223E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9863591940296397E-3</c:v>
+                  <c:v>-6.9863591940296397E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3080205882339365E-3</c:v>
+                  <c:v>-6.3080205882339365E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7234755130067087E-3</c:v>
+                  <c:v>-5.7234755130067087E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1953052394341738E-3</c:v>
+                  <c:v>-5.1953052394341738E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.77421816276363E-3</c:v>
+                  <c:v>-4.77421816276363E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3704721185515959E-3</c:v>
+                  <c:v>-4.3704721185515959E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.034599919046364E-3</c:v>
+                  <c:v>-4.034599919046364E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.7117789056946709E-3</c:v>
+                  <c:v>-3.7117789056946709E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4488261593095741E-3</c:v>
+                  <c:v>-3.4488261593095741E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2179020234895449E-3</c:v>
+                  <c:v>-3.2179020234895449E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9947215758513251E-3</c:v>
+                  <c:v>-2.9947215758513251E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8004856403052165E-3</c:v>
+                  <c:v>-2.8004856403052165E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6125327737189685E-3</c:v>
+                  <c:v>-2.6125327737189685E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.470694513913197E-3</c:v>
+                  <c:v>-2.470694513913197E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3132551737810973E-3</c:v>
+                  <c:v>-2.3132551737810973E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.1795776844614136E-3</c:v>
+                  <c:v>-2.1795776844614136E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0497130096631387E-3</c:v>
+                  <c:v>-2.0497130096631387E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9236641488656733E-3</c:v>
+                  <c:v>-1.9236641488656733E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8359671912097084E-3</c:v>
+                  <c:v>-1.8359671912097084E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7333044578227944E-3</c:v>
+                  <c:v>-1.7333044578227944E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6498983076653109E-3</c:v>
+                  <c:v>-1.6498983076653109E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.584579046769802E-3</c:v>
+                  <c:v>-1.584579046769802E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4889445183056159E-3</c:v>
+                  <c:v>-1.4889445183056159E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.426752106775557E-3</c:v>
+                  <c:v>-1.426752106775557E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3658117050453179E-3</c:v>
+                  <c:v>-1.3658117050453179E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2913980081412527E-3</c:v>
+                  <c:v>-1.2913980081412527E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.2332774649080629E-3</c:v>
+                  <c:v>-1.2332774649080629E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.19051034176912E-3</c:v>
+                  <c:v>-1.19051034176912E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1484492931423808E-3</c:v>
+                  <c:v>-1.1484492931423808E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0799176223543437E-3</c:v>
+                  <c:v>-1.0799176223543437E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0397413032615626E-3</c:v>
+                  <c:v>-1.0397413032615626E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.0002724939005979E-3</c:v>
+                  <c:v>-1.0002724939005979E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.6151161817675877E-4</c:v>
+                  <c:v>-9.6151161817675877E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.2345911594240776E-4</c:v>
+                  <c:v>-9.2345911594240776E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.8611544426957722E-4</c:v>
+                  <c:v>-8.8611544426957722E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.4948107886867984E-4</c:v>
+                  <c:v>-8.4948107886867984E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.254524716629761E-4</c:v>
+                  <c:v>-8.254524716629761E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.9000139624567671E-4</c:v>
+                  <c:v>-7.9000139624567671E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.6676213346595589E-4</c:v>
+                  <c:v>-7.6676213346595589E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.3249583143277777E-4</c:v>
+                  <c:v>-7.3249583143277777E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.1004694099173937E-4</c:v>
+                  <c:v>-7.1004694099173937E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.879145064825115E-4</c:v>
+                  <c:v>-6.879145064825115E-4</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6609871250272062E-4</c:v>
+                  <c:v>-6.6609871250272062E-4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.4459975033511244E-4</c:v>
+                  <c:v>-6.4459975033511244E-4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.2341781841336293E-4</c:v>
+                  <c:v>-6.2341781841336293E-4</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.0255312283243902E-4</c:v>
+                  <c:v>-6.0255312283243902E-4</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.8200587790879755E-4</c:v>
+                  <c:v>-5.8200587790879755E-4</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.6177630679652866E-4</c:v>
+                  <c:v>-5.6177630679652866E-4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.4186464216638081E-4</c:v>
+                  <c:v>-5.4186464216638081E-4</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.320281002768692E-4</c:v>
+                  <c:v>-5.320281002768692E-4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.1259375431022419E-4</c:v>
+                  <c:v>-5.1259375431022419E-4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.934779432589605E-4</c:v>
+                  <c:v>-4.934779432589605E-4</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.8403957294552595E-4</c:v>
+                  <c:v>-4.8403957294552595E-4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.654020792899783E-4</c:v>
+                  <c:v>-4.654020792899783E-4</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.4708382750701552E-4</c:v>
+                  <c:v>-4.4708382750701552E-4</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.3804451315531708E-4</c:v>
+                  <c:v>-4.3804451315531708E-4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.2908512633060033E-4</c:v>
+                  <c:v>-4.2908512633060033E-4</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.1140630138315493E-4</c:v>
+                  <c:v>-4.1140630138315493E-4</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.0268694926168236E-4</c:v>
+                  <c:v>-4.0268694926168236E-4</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.9404769678268186E-4</c:v>
+                  <c:v>-3.9404769678268186E-4</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.8548859014798405E-4</c:v>
+                  <c:v>-3.8548859014798405E-4</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.770096769545414E-4</c:v>
+                  <c:v>-3.770096769545414E-4</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.6029262868042506E-4</c:v>
+                  <c:v>-3.6029262868042506E-4</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.5205459642423425E-4</c:v>
+                  <c:v>-3.5205459642423425E-4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.358197854010658E-4</c:v>
+                  <c:v>-3.358197854010658E-4</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.2782311997471672E-4</c:v>
+                  <c:v>-3.2782311997471672E-4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.1990702675947785E-4</c:v>
+                  <c:v>-3.1990702675947785E-4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.1207156748061271E-4</c:v>
+                  <c:v>-3.1207156748061271E-4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.0431680609355812E-4</c:v>
+                  <c:v>-3.0431680609355812E-4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.9664280891300034E-4</c:v>
+                  <c:v>-2.9664280891300034E-4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.890496447517491E-4</c:v>
+                  <c:v>-2.890496447517491E-4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.8153738507026571E-4</c:v>
+                  <c:v>-2.8153738507026571E-4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.7410610413789778E-4</c:v>
+                  <c:v>-2.7410610413789778E-4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.6675587920693325E-4</c:v>
+                  <c:v>-2.6675587920693325E-4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.5948679070074291E-4</c:v>
+                  <c:v>-2.5948679070074291E-4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.5229892241741494E-4</c:v>
+                  <c:v>-2.5229892241741494E-4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.4519236175046604E-4</c:v>
+                  <c:v>-2.4519236175046604E-4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4519236175046604E-4</c:v>
+                  <c:v>-2.4519236175046604E-4</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.3816719992839568E-4</c:v>
+                  <c:v>-2.3816719992839568E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.3122353227508264E-4</c:v>
+                  <c:v>-2.3122353227508264E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.2436145849326586E-4</c:v>
+                  <c:v>-2.2436145849326586E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.1758108297366424E-4</c:v>
+                  <c:v>-2.1758108297366424E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.1088251513257857E-4</c:v>
+                  <c:v>-2.1088251513257857E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.0426586978128378E-4</c:v>
+                  <c:v>-2.0426586978128378E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.0426586978128378E-4</c:v>
+                  <c:v>-2.0426586978128378E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.9773126753089623E-4</c:v>
+                  <c:v>-1.9773126753089623E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9127883523697276E-4</c:v>
+                  <c:v>-1.9127883523697276E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9127883523697276E-4</c:v>
+                  <c:v>-1.9127883523697276E-4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.849087064886949E-4</c:v>
+                  <c:v>-1.849087064886949E-4</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.7862102214821296E-4</c:v>
+                  <c:v>-1.7862102214821296E-4</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.7241593094656954E-4</c:v>
+                  <c:v>-1.7241593094656954E-4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.7241593094656954E-4</c:v>
+                  <c:v>-1.7241593094656954E-4</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7241593094656954E-4</c:v>
+                  <c:v>-1.7241593094656954E-4</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.6629359014361692E-4</c:v>
+                  <c:v>-1.6629359014361692E-4</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.5429783589487135E-4</c:v>
+                  <c:v>-1.5429783589487135E-4</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.5429783589487135E-4</c:v>
+                  <c:v>-1.5429783589487135E-4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.5429783589487135E-4</c:v>
+                  <c:v>-1.5429783589487135E-4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.4842478663000031E-4</c:v>
+                  <c:v>-1.4842478663000031E-4</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.4263521805231883E-4</c:v>
+                  <c:v>-1.4263521805231883E-4</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1.4263521805231883E-4</c:v>
+                  <c:v>-1.4263521805231883E-4</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.3692934289264756E-4</c:v>
+                  <c:v>-1.3692934289264756E-4</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.3692934289264756E-4</c:v>
+                  <c:v>-1.3692934289264756E-4</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.3130738831064874E-4</c:v>
+                  <c:v>-1.3130738831064874E-4</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.3130738831064874E-4</c:v>
+                  <c:v>-1.3130738831064874E-4</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.2576959734497193E-4</c:v>
+                  <c:v>-1.2576959734497193E-4</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.2576959734497193E-4</c:v>
+                  <c:v>-1.2576959734497193E-4</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.2031623055607783E-4</c:v>
+                  <c:v>-1.2031623055607783E-4</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.2031623055607783E-4</c:v>
+                  <c:v>-1.2031623055607783E-4</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.1494756789413524E-4</c:v>
+                  <c:v>-1.1494756789413524E-4</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.0966391083104773E-4</c:v>
+                  <c:v>-1.0966391083104773E-4</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.0966391083104773E-4</c:v>
+                  <c:v>-1.0966391083104773E-4</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0446558480401017E-4</c:v>
+                  <c:v>-1.0446558480401017E-4</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.0446558480401017E-4</c:v>
+                  <c:v>-1.0446558480401017E-4</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.0446558480401017E-4</c:v>
+                  <c:v>-1.0446558480401017E-4</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.0446558480401017E-4</c:v>
+                  <c:v>-1.0446558480401017E-4</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>9.9352942028475401E-5</c:v>
+                  <c:v>-9.9352942028475401E-5</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>9.4326364751702127E-5</c:v>
+                  <c:v>-9.4326364751702127E-5</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>9.4326364751702127E-5</c:v>
+                  <c:v>-9.4326364751702127E-5</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>9.4326364751702127E-5</c:v>
+                  <c:v>-9.4326364751702127E-5</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>8.9386269034977186E-5</c:v>
+                  <c:v>-8.9386269034977186E-5</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8.9386269034977186E-5</c:v>
+                  <c:v>-8.9386269034977186E-5</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8.4533109174499138E-5</c:v>
+                  <c:v>-8.4533109174499138E-5</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>8.4533109174499138E-5</c:v>
+                  <c:v>-8.4533109174499138E-5</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>7.9767382899267831E-5</c:v>
+                  <c:v>-7.9767382899267831E-5</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7.9767382899267831E-5</c:v>
+                  <c:v>-7.9767382899267831E-5</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>7.9767382899267831E-5</c:v>
+                  <c:v>-7.9767382899267831E-5</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.5089637521700672E-5</c:v>
+                  <c:v>-7.5089637521700672E-5</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>7.5089637521700672E-5</c:v>
+                  <c:v>-7.5089637521700672E-5</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>7.5089637521700672E-5</c:v>
+                  <c:v>-7.5089637521700672E-5</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7.5089637521700672E-5</c:v>
+                  <c:v>-7.5089637521700672E-5</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>7.0500477266252729E-5</c:v>
+                  <c:v>-7.0500477266252729E-5</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.600057206804546E-5</c:v>
+                  <c:v>-6.600057206804546E-5</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6.600057206804546E-5</c:v>
+                  <c:v>-6.600057206804546E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,6 +1944,895 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C4B0-554F-81F4-B6F15C4F421C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Numerical Method</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>21.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22.75</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>23.25</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25.75</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>28.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>30.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>32.25</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>33.25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="141"/>
+                <c:pt idx="0">
+                  <c:v>-1.9181877776944172E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6808603147643465E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4498526588521306E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2487149418432566E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0864751755018619E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.5042510515889068E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.4100042398725997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7.5823886557429632E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.7654516471395542E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.1148372064804106E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.5542032637809846E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.0476274233669412E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.6437276476186977E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.256415234205729E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.9341613290132605E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.6243654606085097E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.3719606666211457E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.1502413771518118E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.935892866082901E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.7492809728279308E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.5686389235883523E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.4322666813877927E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2808344223584445E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.1522000418493265E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.0271764109939371E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.9057633474029185E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.821250171273792E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.7222657183218212E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.6418047039659877E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.578761953131947E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.4864078044816628E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.4263116070884557E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.3673939254936682E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.2954040084183097E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.2391377334070579E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.1977112760282467E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.1569475633441211E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.0904807022794716E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.0514841131681809E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.0131501141875268E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.7547865617036728E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.3846968637944096E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.0212314814638362E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-8.664389804648253E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-8.4301748670027085E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.084371211027272E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-7.8575142834463765E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-7.5227465624737246E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-7.3032461573645105E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-7.0866878960708867E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.8730714890364924E-4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-6.6623966291192457E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-6.4546629901455913E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-6.2498702253158827E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-6.0480179654420437E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-5.8491058169964452E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-5.6531333599472218E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-5.5562493766022334E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-5.3646856051203426E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-5.1760603425201007E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-5.0828494867945976E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-4.8986309746514337E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-4.7173495614849975E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.6278100687224507E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.5390046066030572E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-4.3635954186064223E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-4.276991505947536E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-4.1911212499861787E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-4.105984547510964E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-4.0215812909917998E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-3.8549746626495113E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-3.7727710519255012E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.610562600146583E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-3.5305574868821674E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-3.4512849234602218E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-3.3727447575489212E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.294936829593922E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.2178609723620716E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3.141517010448973E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3.0659047597465615E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.9910240268669799E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.9168746085182193E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.8434562908267075E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.7707688486012388E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.6988120445320694E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.6988120445320694E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.6275856283181537E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.5570893357146677E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.4873228874917647E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.4182859882946521E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.3499783253930526E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.2823995673073482E-4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.2823995673073482E-4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.2155493622960486E-4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.149427336687472E-4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.149427336687472E-4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.084033093035823E-4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.0193662080787703E-4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.9554262304701632E-4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.9554262304701632E-4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.9554262304701632E-4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.8922126782571275E-4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.7679627519544752E-4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.7679627519544752E-4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.7679627519544752E-4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.7069252338833372E-4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.6466118457461197E-4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1.6466118457461197E-4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.5870219028922346E-4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1.5870219028922346E-4</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.5281546670598567E-4</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1.5281546670598567E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.4700093406225747E-4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1.4700093406225747E-4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.4125850600329009E-4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.4125850600329009E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1.3558808883221599E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.2998958064860207E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1.2998958064860207E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.2446287035471781E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1.2446287035471781E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-1.2446287035471781E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.2446287035471781E-4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.1900783650388543E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.1362434595919754E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1.1362434595919754E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-1.1362434595919754E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.0831225232301265E-4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-1.0831225232301265E-4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.0307139408751366E-4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-1.0307139408751366E-4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-9.7901592443227584E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-9.7901592443227584E-5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-9.7901592443227584E-5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-9.2802648664787015E-5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-9.2802648664787015E-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-9.2802648664787015E-5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-9.2802648664787015E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-8.7774340969519509E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-8.2816420712395898E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-8.2816420712395898E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF20-460F-8E22-5097D8B7AE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1117,6 +2868,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6836,16 +8588,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>420967</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>360456</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>101826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7194,20 +8946,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:R144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J11" zoomScale="213" workbookViewId="0">
-      <selection activeCell="S130" sqref="S130"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R143" sqref="R3:R143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7223,7 +8975,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
@@ -7248,8 +9000,20 @@
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -7270,8 +9034,8 @@
         <v>0.69236811071223003</v>
       </c>
       <c r="H3">
-        <f>$E$3*B3^$F$3*C3^$G$3</f>
-        <v>2.1374641270682844E-2</v>
+        <f>-$E$3*B3^$F$3*C3^$G$3</f>
+        <v>-2.1374641270682844E-2</v>
       </c>
       <c r="J3" s="1">
         <v>5.9777044000000004</v>
@@ -7283,11 +9047,24 @@
         <v>1.1473058899999999</v>
       </c>
       <c r="M3" s="1">
-        <f>$J$3*B3^$K$3*C3^$L$3</f>
-        <v>1.990972097137297E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <f>-$J$3*B3^$K$3*C3^$L$3</f>
+        <v>-1.990972097137297E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6.0063321500000004</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1.0458150500000001</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.95466596999999997</v>
+      </c>
+      <c r="R3">
+        <f>-$O$3*B3^$P$3*C3^$Q$3</f>
+        <v>-1.9181877776944172E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.25</v>
       </c>
@@ -7295,21 +9072,25 @@
         <v>5.639439490012145E-2</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C67" si="0">B4+0.053 - 0.06</f>
+        <f>B4+0.053 - 0.06</f>
         <v>4.9394394900121458E-2</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H67" si="1">$E$3*B4^$F$3*C4^$G$3</f>
-        <v>1.8540554885443535E-2</v>
+        <f t="shared" ref="H4:H67" si="0">-$E$3*B4^$F$3*C4^$G$3</f>
+        <v>-1.8540554885443535E-2</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" ref="M4:M67" si="2">$J$3*B4^$K$3*C4^$L$3</f>
-        <v>1.7443226604801083E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M4:M67" si="1">-$J$3*B4^$K$3*C4^$L$3</f>
+        <v>-1.7443226604801083E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R67" si="2">-$O$3*B4^$P$3*C4^$Q$3</f>
+        <v>-1.6808603147643465E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.5</v>
       </c>
@@ -7317,21 +9098,25 @@
         <v>5.263202436111776E-2</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f>B5+0.053 - 0.06</f>
         <v>4.5632024361117768E-2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5815327325602462E-2</v>
+      </c>
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>1.5815327325602462E-2</v>
-      </c>
-      <c r="M5" s="1">
+        <v>-1.5040759285628534E-2</v>
+      </c>
+      <c r="R5" s="1">
         <f t="shared" si="2"/>
-        <v>1.5040759285628534E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.4498526588521306E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.75</v>
       </c>
@@ -7339,21 +9124,25 @@
         <v>4.9104801980801804E-2</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C4:C67" si="3">B6+0.053 - 0.06</f>
         <v>4.2104801980801798E-2</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3472713248276284E-2</v>
+      </c>
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>1.3472713248276284E-2</v>
-      </c>
-      <c r="M6" s="1">
+        <v>-1.2947563873010961E-2</v>
+      </c>
+      <c r="R6" s="1">
         <f t="shared" si="2"/>
-        <v>1.2947563873010961E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.2487149418432566E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -7361,21 +9150,25 @@
         <v>4.6047875917861303E-2</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9047875917861297E-2</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1606289062087811E-2</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>1.1606289062087811E-2</v>
-      </c>
-      <c r="M7" s="1">
+        <v>-1.1258229297837451E-2</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="2"/>
-        <v>1.1258229297837451E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.0864751755018619E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.25</v>
       </c>
@@ -7383,21 +9176,25 @@
         <v>4.330448073317112E-2</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6304480733171121E-2</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.005906607164663E-2</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>1.005906607164663E-2</v>
-      </c>
-      <c r="M8" s="1">
+        <v>-9.8409638114687094E-3</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="2"/>
-        <v>9.8409638114687094E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-9.5042510515889068E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.5</v>
       </c>
@@ -7405,21 +9202,25 @@
         <v>4.0952999146293821E-2</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.3952999146293822E-2</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.8278540631487028E-3</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>8.8278540631487028E-3</v>
-      </c>
-      <c r="M9" s="1">
+        <v>-8.7006689586591711E-3</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="2"/>
-        <v>8.7006689586591711E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-8.4100042398725997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.75</v>
       </c>
@@ -7427,21 +9228,25 @@
         <v>3.9071813876791976E-2</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2071813876791977E-2</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.9052803383478833E-3</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>7.9052803383478833E-3</v>
-      </c>
-      <c r="M10" s="1">
+        <v>-7.8380196349691223E-3</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="2"/>
-        <v>7.8380196349691223E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-7.5823886557429632E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -7449,21 +9254,25 @@
         <v>3.7112245887727546E-2</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.011224588772754E-2</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.0026035692996765E-3</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>7.0026035692996765E-3</v>
-      </c>
-      <c r="M11" s="1">
+        <v>-6.9863591940296397E-3</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="2"/>
-        <v>6.9863591940296397E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6.7654516471395542E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.25</v>
       </c>
@@ -7471,21 +9280,25 @@
         <v>3.5466208776913435E-2</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8466208776913443E-2</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.2898917112831779E-3</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>6.2898917112831779E-3</v>
-      </c>
-      <c r="M12" s="1">
+        <v>-6.3080205882339365E-3</v>
+      </c>
+      <c r="R12" s="1">
         <f t="shared" si="2"/>
-        <v>6.3080205882339365E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6.1148372064804106E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.5</v>
       </c>
@@ -7493,21 +9306,25 @@
         <v>3.3976937105224481E-2</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.6976937105224474E-2</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.6805282551914502E-3</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>5.6805282551914502E-3</v>
-      </c>
-      <c r="M13" s="1">
+        <v>-5.7234755130067087E-3</v>
+      </c>
+      <c r="R13" s="1">
         <f t="shared" si="2"/>
-        <v>5.7234755130067087E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5.5542032637809846E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2.75</v>
       </c>
@@ -7515,21 +9332,25 @@
         <v>3.256604815309809E-2</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.5566048153098098E-2</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.1340318715272313E-3</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>5.1340318715272313E-3</v>
-      </c>
-      <c r="M14" s="1">
+        <v>-5.1953052394341738E-3</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="2"/>
-        <v>5.1953052394341738E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5.0476274233669412E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -7537,21 +9358,25 @@
         <v>3.139030735965944E-2</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.4390307359659441E-2</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.7013072482675307E-3</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>4.7013072482675307E-3</v>
-      </c>
-      <c r="M15" s="1">
+        <v>-4.77421816276363E-3</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="2"/>
-        <v>4.77421816276363E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4.6437276476186977E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3.25</v>
       </c>
@@ -7559,21 +9384,25 @@
         <v>3.0214566566220787E-2</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.3214566566220785E-2</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.2890357705008412E-3</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>4.2890357705008412E-3</v>
-      </c>
-      <c r="M16" s="1">
+        <v>-4.3704721185515959E-3</v>
+      </c>
+      <c r="R16" s="1">
         <f t="shared" si="2"/>
-        <v>4.3704721185515959E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4.256415234205729E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3.5</v>
       </c>
@@ -7581,21 +9410,25 @@
         <v>2.9195591211907287E-2</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.2195591211907284E-2</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.9481483685516331E-3</v>
+      </c>
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>3.9481483685516331E-3</v>
-      </c>
-      <c r="M17" s="1">
+        <v>-4.034599919046364E-3</v>
+      </c>
+      <c r="R17" s="1">
         <f t="shared" si="2"/>
-        <v>4.034599919046364E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.9341613290132605E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3.75</v>
       </c>
@@ -7603,21 +9436,25 @@
         <v>2.817661585759379E-2</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.1176615857593784E-2</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.6223844222204402E-3</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>3.6223844222204402E-3</v>
-      </c>
-      <c r="M18" s="1">
+        <v>-3.7117789056946709E-3</v>
+      </c>
+      <c r="R18" s="1">
         <f t="shared" si="2"/>
-        <v>3.7117789056946709E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.6243654606085097E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -7625,21 +9462,25 @@
         <v>2.7314405942405442E-2</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.0314405942405439E-2</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.358464176647489E-3</v>
+      </c>
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>3.358464176647489E-3</v>
-      </c>
-      <c r="M19" s="1">
+        <v>-3.4488261593095741E-3</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" si="2"/>
-        <v>3.4488261593095741E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.3719606666211457E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>4.25</v>
       </c>
@@ -7647,21 +9488,25 @@
         <v>2.6530578746779675E-2</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.9530578746779673E-2</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.1277994252591618E-3</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>3.1277994252591618E-3</v>
-      </c>
-      <c r="M20" s="1">
+        <v>-3.2179020234895449E-3</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="2"/>
-        <v>3.2179020234895449E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.1502413771518118E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4.5</v>
       </c>
@@ -7669,21 +9514,25 @@
         <v>2.5746751551153902E-2</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.8746751551153906E-2</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.9058983691072518E-3</v>
+      </c>
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>2.9058983691072518E-3</v>
-      </c>
-      <c r="M21" s="1">
+        <v>-2.9947215758513251E-3</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="2"/>
-        <v>2.9947215758513251E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.935892866082901E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4.75</v>
       </c>
@@ -7691,21 +9540,25 @@
         <v>2.5041307075090714E-2</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.8041307075090718E-2</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.7136327561650751E-3</v>
+      </c>
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
-        <v>2.7136327561650751E-3</v>
-      </c>
-      <c r="M22" s="1">
+        <v>-2.8004856403052165E-3</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="2"/>
-        <v>2.8004856403052165E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.7492809728279308E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -7713,21 +9566,25 @@
         <v>2.4335862599027522E-2</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7335862599027529E-2</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.528375894517963E-3</v>
+      </c>
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
-        <v>2.528375894517963E-3</v>
-      </c>
-      <c r="M23" s="1">
+        <v>-2.6125327737189685E-3</v>
+      </c>
+      <c r="R23" s="1">
         <f t="shared" si="2"/>
-        <v>2.6125327737189685E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.5686389235883523E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5.25</v>
       </c>
@@ -7735,21 +9592,25 @@
         <v>2.3787183562089483E-2</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6787183562089483E-2</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.389104465787687E-3</v>
+      </c>
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
-        <v>2.389104465787687E-3</v>
-      </c>
-      <c r="M24" s="1">
+        <v>-2.470694513913197E-3</v>
+      </c>
+      <c r="R24" s="1">
         <f t="shared" si="2"/>
-        <v>2.470694513913197E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.4322666813877927E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5.5</v>
       </c>
@@ -7757,21 +9618,25 @@
         <v>2.3160121805588876E-2</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6160121805588873E-2</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2350685957552934E-3</v>
+      </c>
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
-        <v>2.2350685957552934E-3</v>
-      </c>
-      <c r="M25" s="1">
+        <v>-2.3132551737810973E-3</v>
+      </c>
+      <c r="R25" s="1">
         <f t="shared" si="2"/>
-        <v>2.3132551737810973E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.2808344223584445E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>5.75</v>
       </c>
@@ -7779,21 +9644,25 @@
         <v>2.2611442768650833E-2</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5611442768650841E-2</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.1047527234312482E-3</v>
+      </c>
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
-        <v>2.1047527234312482E-3</v>
-      </c>
-      <c r="M26" s="1">
+        <v>-2.1795776844614136E-3</v>
+      </c>
+      <c r="R26" s="1">
         <f t="shared" si="2"/>
-        <v>2.1795776844614136E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.1522000418493265E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -7801,21 +9670,25 @@
         <v>2.2062763731712794E-2</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5062763731712794E-2</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.9785812290763751E-3</v>
+      </c>
+      <c r="M27" s="1">
         <f t="shared" si="1"/>
-        <v>1.9785812290763751E-3</v>
-      </c>
-      <c r="M27" s="1">
+        <v>-2.0497130096631387E-3</v>
+      </c>
+      <c r="R27" s="1">
         <f t="shared" si="2"/>
-        <v>2.0497130096631387E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.0271764109939371E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6.25</v>
       </c>
@@ -7823,21 +9696,25 @@
         <v>2.1514084694774761E-2</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4514084694774762E-2</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8565311933981109E-3</v>
+      </c>
+      <c r="M28" s="1">
         <f t="shared" si="1"/>
-        <v>1.8565311933981109E-3</v>
-      </c>
-      <c r="M28" s="1">
+        <v>-1.9236641488656733E-3</v>
+      </c>
+      <c r="R28" s="1">
         <f t="shared" si="2"/>
-        <v>1.9236641488656733E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.9057633474029185E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>6.5</v>
       </c>
@@ -7845,21 +9722,25 @@
         <v>2.1122171096961871E-2</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4122171096961872E-2</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.7718629529832693E-3</v>
+      </c>
+      <c r="M29" s="1">
         <f t="shared" si="1"/>
-        <v>1.7718629529832693E-3</v>
-      </c>
-      <c r="M29" s="1">
+        <v>-1.8359671912097084E-3</v>
+      </c>
+      <c r="R29" s="1">
         <f t="shared" si="2"/>
-        <v>1.8359671912097084E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.821250171273792E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>6.75</v>
       </c>
@@ -7867,21 +9748,25 @@
         <v>2.0651874779586413E-2</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3651874779586418E-2</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.6730086162869439E-3</v>
+      </c>
+      <c r="M30" s="1">
         <f t="shared" si="1"/>
-        <v>1.6730086162869439E-3</v>
-      </c>
-      <c r="M30" s="1">
+        <v>-1.7333044578227944E-3</v>
+      </c>
+      <c r="R30" s="1">
         <f t="shared" si="2"/>
-        <v>1.7333044578227944E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.7222657183218212E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>7</v>
       </c>
@@ -7889,21 +9774,25 @@
         <v>2.025996118177353E-2</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3259961181773527E-2</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5929091542497744E-3</v>
+      </c>
+      <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>1.5929091542497744E-3</v>
-      </c>
-      <c r="M31" s="1">
+        <v>-1.6498983076653109E-3</v>
+      </c>
+      <c r="R31" s="1">
         <f t="shared" si="2"/>
-        <v>1.6498983076653109E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.6418047039659877E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>7.25</v>
       </c>
@@ -7911,21 +9800,25 @@
         <v>1.9946430303523222E-2</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2946430303523215E-2</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.5303148400729553E-3</v>
+      </c>
+      <c r="M32" s="1">
         <f t="shared" si="1"/>
-        <v>1.5303148400729553E-3</v>
-      </c>
-      <c r="M32" s="1">
+        <v>-1.584579046769802E-3</v>
+      </c>
+      <c r="R32" s="1">
         <f t="shared" si="2"/>
-        <v>1.584579046769802E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.578761953131947E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>7.5</v>
       </c>
@@ -7933,21 +9826,25 @@
         <v>1.9476133986147757E-2</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2476133986147761E-2</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.4388876407489494E-3</v>
+      </c>
+      <c r="M33" s="1">
         <f t="shared" si="1"/>
-        <v>1.4388876407489494E-3</v>
-      </c>
-      <c r="M33" s="1">
+        <v>-1.4889445183056159E-3</v>
+      </c>
+      <c r="R33" s="1">
         <f t="shared" si="2"/>
-        <v>1.4889445183056159E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.4864078044816628E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>7.75</v>
       </c>
@@ -7955,21 +9852,25 @@
         <v>1.9162603107897448E-2</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2162603107897449E-2</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3795719441840296E-3</v>
+      </c>
+      <c r="M34" s="1">
         <f t="shared" si="1"/>
-        <v>1.3795719441840296E-3</v>
-      </c>
-      <c r="M34" s="1">
+        <v>-1.426752106775557E-3</v>
+      </c>
+      <c r="R34" s="1">
         <f t="shared" si="2"/>
-        <v>1.426752106775557E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.4263116070884557E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>8</v>
       </c>
@@ -7977,21 +9878,25 @@
         <v>1.8849072229647143E-2</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.1849072229647151E-2</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3215590901813326E-3</v>
+      </c>
+      <c r="M35" s="1">
         <f t="shared" si="1"/>
-        <v>1.3215590901813326E-3</v>
-      </c>
-      <c r="M35" s="1">
+        <v>-1.3658117050453179E-3</v>
+      </c>
+      <c r="R35" s="1">
         <f t="shared" si="2"/>
-        <v>1.3658117050453179E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.3673939254936682E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>8.25</v>
       </c>
@@ -7999,21 +9904,25 @@
         <v>1.845715863183426E-2</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.1457158631834261E-2</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.2508674452307909E-3</v>
+      </c>
+      <c r="M36" s="1">
         <f t="shared" si="1"/>
-        <v>1.2508674452307909E-3</v>
-      </c>
-      <c r="M36" s="1">
+        <v>-1.2913980081412527E-3</v>
+      </c>
+      <c r="R36" s="1">
         <f t="shared" si="2"/>
-        <v>1.2913980081412527E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.2954040084183097E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>8.5</v>
       </c>
@@ -8021,21 +9930,25 @@
         <v>1.8143627753583951E-2</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.1143627753583948E-2</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1957673850497561E-3</v>
+      </c>
+      <c r="M37" s="1">
         <f t="shared" si="1"/>
-        <v>1.1957673850497561E-3</v>
-      </c>
-      <c r="M37" s="1">
+        <v>-1.2332774649080629E-3</v>
+      </c>
+      <c r="R37" s="1">
         <f t="shared" si="2"/>
-        <v>1.2332774649080629E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.2391377334070579E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>8.75</v>
       </c>
@@ -8043,21 +9956,25 @@
         <v>1.7908479594896221E-2</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0908479594896214E-2</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.155286624205135E-3</v>
+      </c>
+      <c r="M38" s="1">
         <f t="shared" si="1"/>
-        <v>1.155286624205135E-3</v>
-      </c>
-      <c r="M38" s="1">
+        <v>-1.19051034176912E-3</v>
+      </c>
+      <c r="R38" s="1">
         <f t="shared" si="2"/>
-        <v>1.19051034176912E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.1977112760282467E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>9</v>
       </c>
@@ -8065,21 +9982,25 @@
         <v>1.7673331436208493E-2</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0673331436208494E-2</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1155270263052792E-3</v>
+      </c>
+      <c r="M39" s="1">
         <f t="shared" si="1"/>
-        <v>1.1155270263052792E-3</v>
-      </c>
-      <c r="M39" s="1">
+        <v>-1.1484492931423808E-3</v>
+      </c>
+      <c r="R39" s="1">
         <f t="shared" si="2"/>
-        <v>1.1484492931423808E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.1569475633441211E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>9.25</v>
       </c>
@@ -8087,21 +10008,25 @@
         <v>1.728141783839561E-2</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0281417838395618E-2</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0508573602510602E-3</v>
+      </c>
+      <c r="M40" s="1">
         <f t="shared" si="1"/>
-        <v>1.0508573602510602E-3</v>
-      </c>
-      <c r="M40" s="1">
+        <v>-1.0799176223543437E-3</v>
+      </c>
+      <c r="R40" s="1">
         <f t="shared" si="2"/>
-        <v>1.0799176223543437E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.0904807022794716E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>9.5</v>
       </c>
@@ -8109,21 +10034,25 @@
         <v>1.704626967970788E-2</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.0046269679707884E-2</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.013009535477026E-3</v>
+      </c>
+      <c r="M41" s="1">
         <f t="shared" si="1"/>
-        <v>1.013009535477026E-3</v>
-      </c>
-      <c r="M41" s="1">
+        <v>-1.0397413032615626E-3</v>
+      </c>
+      <c r="R41" s="1">
         <f t="shared" si="2"/>
-        <v>1.0397413032615626E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.0514841131681809E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>9.75</v>
       </c>
@@ -8131,21 +10060,25 @@
         <v>1.6811121521020145E-2</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.8111215210201497E-3</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.7587426794485462E-4</v>
+      </c>
+      <c r="M42" s="1">
         <f t="shared" si="1"/>
-        <v>9.7587426794485462E-4</v>
-      </c>
-      <c r="M42" s="1">
+        <v>-1.0002724939005979E-3</v>
+      </c>
+      <c r="R42" s="1">
         <f t="shared" si="2"/>
-        <v>1.0002724939005979E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-1.0131501141875268E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>10</v>
       </c>
@@ -8153,21 +10086,25 @@
         <v>1.6575973362332415E-2</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.5759733623324156E-3</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.3944911652864738E-4</v>
+      </c>
+      <c r="M43" s="1">
         <f t="shared" si="1"/>
-        <v>9.3944911652864738E-4</v>
-      </c>
-      <c r="M43" s="1">
+        <v>-9.6151161817675877E-4</v>
+      </c>
+      <c r="R43" s="1">
         <f t="shared" si="2"/>
-        <v>9.6151161817675877E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-9.7547865617036728E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>10.25</v>
       </c>
@@ -8175,21 +10112,25 @@
         <v>1.6340825203644688E-2</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.3408252036446815E-3</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.0373159563173118E-4</v>
+      </c>
+      <c r="M44" s="1">
         <f t="shared" si="1"/>
-        <v>9.0373159563173118E-4</v>
-      </c>
-      <c r="M44" s="1">
+        <v>-9.2345911594240776E-4</v>
+      </c>
+      <c r="R44" s="1">
         <f t="shared" si="2"/>
-        <v>9.2345911594240776E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-9.3846968637944096E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10.5</v>
       </c>
@@ -8197,21 +10138,25 @@
         <v>1.6105677044956957E-2</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.1056770449569613E-3</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.6871917262727912E-4</v>
+      </c>
+      <c r="M45" s="1">
         <f t="shared" si="1"/>
-        <v>8.6871917262727912E-4</v>
-      </c>
-      <c r="M45" s="1">
+        <v>-8.8611544426957722E-4</v>
+      </c>
+      <c r="R45" s="1">
         <f t="shared" si="2"/>
-        <v>8.8611544426957722E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-9.0212314814638362E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>10.75</v>
       </c>
@@ -8219,21 +10164,25 @@
         <v>1.5870528886269223E-2</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.8705288862692272E-3</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.3440926502803883E-4</v>
+      </c>
+      <c r="M46" s="1">
         <f t="shared" si="1"/>
-        <v>8.3440926502803883E-4</v>
-      </c>
-      <c r="M46" s="1">
+        <v>-8.4948107886867984E-4</v>
+      </c>
+      <c r="R46" s="1">
         <f t="shared" si="2"/>
-        <v>8.4948107886867984E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-8.664389804648253E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>11</v>
       </c>
@@ -8241,21 +10190,25 @@
         <v>1.5713763447144074E-2</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.7137634471440711E-3</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1192498043954021E-4</v>
+      </c>
+      <c r="M47" s="1">
         <f t="shared" si="1"/>
-        <v>8.1192498043954021E-4</v>
-      </c>
-      <c r="M47" s="1">
+        <v>-8.254524716629761E-4</v>
+      </c>
+      <c r="R47" s="1">
         <f t="shared" si="2"/>
-        <v>8.254524716629761E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-8.4301748670027085E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>11.25</v>
       </c>
@@ -8263,21 +10216,25 @@
         <v>1.547861528845634E-2</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.4786152884563371E-3</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.7878004746109654E-4</v>
+      </c>
+      <c r="M48" s="1">
         <f t="shared" si="1"/>
-        <v>7.7878004746109654E-4</v>
-      </c>
-      <c r="M48" s="1">
+        <v>-7.9000139624567671E-4</v>
+      </c>
+      <c r="R48" s="1">
         <f t="shared" si="2"/>
-        <v>7.9000139624567671E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-8.084371211027272E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>11.5</v>
       </c>
@@ -8285,21 +10242,25 @@
         <v>1.5321849849331191E-2</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.3218498493311949E-3</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.5706990774995276E-4</v>
+      </c>
+      <c r="M49" s="1">
         <f t="shared" si="1"/>
-        <v>7.5706990774995276E-4</v>
-      </c>
-      <c r="M49" s="1">
+        <v>-7.6676213346595589E-4</v>
+      </c>
+      <c r="R49" s="1">
         <f t="shared" si="2"/>
-        <v>7.6676213346595589E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-7.8575142834463765E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>11.75</v>
       </c>
@@ -8307,21 +10268,25 @@
         <v>1.5086701690643458E-2</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.0867016906434608E-3</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.2508235930727636E-4</v>
+      </c>
+      <c r="M50" s="1">
         <f t="shared" si="1"/>
-        <v>7.2508235930727636E-4</v>
-      </c>
-      <c r="M50" s="1">
+        <v>-7.3249583143277777E-4</v>
+      </c>
+      <c r="R50" s="1">
         <f t="shared" si="2"/>
-        <v>7.3249583143277777E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-7.5227465624737246E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>12</v>
       </c>
@@ -8329,21 +10294,25 @@
         <v>1.4929936251518301E-2</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.9299362515183047E-3</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.0414120741124598E-4</v>
+      </c>
+      <c r="M51" s="1">
         <f t="shared" si="1"/>
-        <v>7.0414120741124598E-4</v>
-      </c>
-      <c r="M51" s="1">
+        <v>-7.1004694099173937E-4</v>
+      </c>
+      <c r="R51" s="1">
         <f t="shared" si="2"/>
-        <v>7.1004694099173937E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-7.3032461573645105E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>12.25</v>
       </c>
@@ -8351,21 +10320,25 @@
         <v>1.477317081239315E-2</v>
       </c>
       <c r="C52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.7731708123931487E-3</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.8350615986619814E-4</v>
+      </c>
+      <c r="M52" s="1">
         <f t="shared" si="1"/>
-        <v>6.8350615986619814E-4</v>
-      </c>
-      <c r="M52" s="1">
+        <v>-6.879145064825115E-4</v>
+      </c>
+      <c r="R52" s="1">
         <f t="shared" si="2"/>
-        <v>6.879145064825115E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-7.0866878960708867E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>12.5</v>
       </c>
@@ -8373,21 +10346,25 @@
         <v>1.4616405373267992E-2</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.6164053732679926E-3</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.6317634290271709E-4</v>
+      </c>
+      <c r="M53" s="1">
         <f t="shared" si="1"/>
-        <v>6.6317634290271709E-4</v>
-      </c>
-      <c r="M53" s="1">
+        <v>-6.6609871250272062E-4</v>
+      </c>
+      <c r="R53" s="1">
         <f t="shared" si="2"/>
-        <v>6.6609871250272062E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6.8730714890364924E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>12.75</v>
       </c>
@@ -8395,21 +10372,25 @@
         <v>1.4459639934142843E-2</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.4596399341428365E-3</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.4315086704917583E-4</v>
+      </c>
+      <c r="M54" s="1">
         <f t="shared" si="1"/>
-        <v>6.4315086704917583E-4</v>
-      </c>
-      <c r="M54" s="1">
+        <v>-6.4459975033511244E-4</v>
+      </c>
+      <c r="R54" s="1">
         <f t="shared" si="2"/>
-        <v>6.4459975033511244E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6.6623966291192457E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>13</v>
       </c>
@@ -8417,21 +10398,25 @@
         <v>1.4302874495017685E-2</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.3028744950176805E-3</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.2342882623239737E-4</v>
+      </c>
+      <c r="M55" s="1">
         <f t="shared" si="1"/>
-        <v>6.2342882623239737E-4</v>
-      </c>
-      <c r="M55" s="1">
+        <v>-6.2341781841336293E-4</v>
+      </c>
+      <c r="R55" s="1">
         <f t="shared" si="2"/>
-        <v>6.2341781841336293E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6.4546629901455913E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>13.25</v>
       </c>
@@ -8439,21 +10424,25 @@
         <v>1.4146109055892534E-2</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.1461090558925383E-3</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.0400929679250612E-4</v>
+      </c>
+      <c r="M56" s="1">
         <f t="shared" si="1"/>
-        <v>6.0400929679250612E-4</v>
-      </c>
-      <c r="M56" s="1">
+        <v>-6.0255312283243902E-4</v>
+      </c>
+      <c r="R56" s="1">
         <f t="shared" si="2"/>
-        <v>6.0255312283243902E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6.2498702253158827E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>13.5</v>
       </c>
@@ -8461,21 +10450,25 @@
         <v>1.3989343616767378E-2</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.9893436167673823E-3</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.8489133640120196E-4</v>
+      </c>
+      <c r="M57" s="1">
         <f t="shared" si="1"/>
-        <v>5.8489133640120196E-4</v>
-      </c>
-      <c r="M57" s="1">
+        <v>-5.8200587790879755E-4</v>
+      </c>
+      <c r="R57" s="1">
         <f t="shared" si="2"/>
-        <v>5.8200587790879755E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-6.0480179654420437E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>13.75</v>
       </c>
@@ -8483,21 +10476,25 @@
         <v>1.3832578177642227E-2</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.8325781776422262E-3</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.6607398287108156E-4</v>
+      </c>
+      <c r="M58" s="1">
         <f t="shared" si="1"/>
-        <v>5.6607398287108156E-4</v>
-      </c>
-      <c r="M58" s="1">
+        <v>-5.6177630679652866E-4</v>
+      </c>
+      <c r="R58" s="1">
         <f t="shared" si="2"/>
-        <v>5.6177630679652866E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5.8491058169964452E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>14</v>
       </c>
@@ -8505,21 +10502,25 @@
         <v>1.3675812738517076E-2</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.675812738517084E-3</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.4755625284165271E-4</v>
+      </c>
+      <c r="M59" s="1">
         <f t="shared" si="1"/>
-        <v>5.4755625284165271E-4</v>
-      </c>
-      <c r="M59" s="1">
+        <v>-5.4186464216638081E-4</v>
+      </c>
+      <c r="R59" s="1">
         <f t="shared" si="2"/>
-        <v>5.4186464216638081E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5.6531333599472218E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>14.25</v>
       </c>
@@ -8527,21 +10528,25 @@
         <v>1.3597430018954495E-2</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.5974300189544921E-3</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.3840943319540717E-4</v>
+      </c>
+      <c r="M60" s="1">
         <f t="shared" si="1"/>
-        <v>5.3840943319540717E-4</v>
-      </c>
-      <c r="M60" s="1">
+        <v>-5.320281002768692E-4</v>
+      </c>
+      <c r="R60" s="1">
         <f t="shared" si="2"/>
-        <v>5.320281002768692E-4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5.5562493766022334E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>14.5</v>
       </c>
@@ -8549,21 +10554,25 @@
         <v>1.3440664579829344E-2</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.4406645798293499E-3</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.2033924468333065E-4</v>
+      </c>
+      <c r="M61" s="1">
         <f t="shared" si="1"/>
-        <v>5.2033924468333065E-4</v>
-      </c>
-      <c r="M61" s="1">
+        <v>-5.1259375431022419E-4</v>
+      </c>
+      <c r="R61" s="1">
         <f t="shared" si="2"/>
-        <v>5.1259375431022419E-4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5.3646856051203426E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>14.75</v>
       </c>
@@ -8571,21 +10580,25 @@
         <v>1.3283899140704186E-2</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.28389914070418E-3</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.025661187001043E-4</v>
+      </c>
+      <c r="M62" s="1">
         <f t="shared" si="1"/>
-        <v>5.025661187001043E-4</v>
-      </c>
-      <c r="M62" s="1">
+        <v>-4.934779432589605E-4</v>
+      </c>
+      <c r="R62" s="1">
         <f t="shared" si="2"/>
-        <v>4.934779432589605E-4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5.1760603425201007E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>15</v>
       </c>
@@ -8593,21 +10606,25 @@
         <v>1.3205516421141612E-2</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.2055164211416158E-3</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9379062088784301E-4</v>
+      </c>
+      <c r="M63" s="1">
         <f t="shared" si="1"/>
-        <v>4.9379062088784301E-4</v>
-      </c>
-      <c r="M63" s="1">
+        <v>-4.8403957294552595E-4</v>
+      </c>
+      <c r="R63" s="1">
         <f t="shared" si="2"/>
-        <v>4.8403957294552595E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-5.0828494867945976E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>15.25</v>
       </c>
@@ -8615,21 +10632,25 @@
         <v>1.3048750982016461E-2</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.0487509820164598E-3</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="H64" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.7646107340375748E-4</v>
+      </c>
+      <c r="M64" s="1">
         <f t="shared" si="1"/>
-        <v>4.7646107340375748E-4</v>
-      </c>
-      <c r="M64" s="1">
+        <v>-4.654020792899783E-4</v>
+      </c>
+      <c r="R64" s="1">
         <f t="shared" si="2"/>
-        <v>4.654020792899783E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4.8986309746514337E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>15.5</v>
       </c>
@@ -8637,21 +10658,25 @@
         <v>1.2891985542891305E-2</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.8919855428913037E-3</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="H65" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.5942585806247645E-4</v>
+      </c>
+      <c r="M65" s="1">
         <f t="shared" si="1"/>
-        <v>4.5942585806247645E-4</v>
-      </c>
-      <c r="M65" s="1">
+        <v>-4.4708382750701552E-4</v>
+      </c>
+      <c r="R65" s="1">
         <f t="shared" si="2"/>
-        <v>4.4708382750701552E-4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4.7173495614849975E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>15.75</v>
       </c>
@@ -8659,21 +10684,25 @@
         <v>1.2813602823328728E-2</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.8136028233287257E-3</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="H66" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.5101826774606639E-4</v>
+      </c>
+      <c r="M66" s="1">
         <f t="shared" si="1"/>
-        <v>4.5101826774606639E-4</v>
-      </c>
-      <c r="M66" s="1">
+        <v>-4.3804451315531708E-4</v>
+      </c>
+      <c r="R66" s="1">
         <f t="shared" si="2"/>
-        <v>4.3804451315531708E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4.6278100687224507E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>16</v>
       </c>
@@ -8681,21 +10710,25 @@
         <v>1.2735220103766154E-2</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.7352201037661477E-3</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="H67" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.4268382748586339E-4</v>
+      </c>
+      <c r="M67" s="1">
         <f t="shared" si="1"/>
-        <v>4.4268382748586339E-4</v>
-      </c>
-      <c r="M67" s="1">
+        <v>-4.2908512633060033E-4</v>
+      </c>
+      <c r="R67" s="1">
         <f t="shared" si="2"/>
-        <v>4.2908512633060033E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-4.5390046066030572E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>16.25</v>
       </c>
@@ -8703,21 +10736,25 @@
         <v>1.2578454664640996E-2</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" ref="C68:C131" si="3">B68+0.053 - 0.06</f>
+        <f t="shared" ref="C68:C131" si="4">B68+0.053 - 0.06</f>
         <v>5.5784546646409916E-3</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="H68" s="1">
-        <f t="shared" ref="H68:H131" si="4">$E$3*B68^$F$3*C68^$G$3</f>
-        <v>4.2623379866087624E-4</v>
+        <f t="shared" ref="H68:H131" si="5">-$E$3*B68^$F$3*C68^$G$3</f>
+        <v>-4.2623379866087624E-4</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" ref="M68:M131" si="5">$J$3*B68^$K$3*C68^$L$3</f>
-        <v>4.1140630138315493E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M68:M131" si="6">-$J$3*B68^$K$3*C68^$L$3</f>
+        <v>-4.1140630138315493E-4</v>
+      </c>
+      <c r="R68" s="1">
+        <f t="shared" ref="R68:R131" si="7">-$O$3*B68^$P$3*C68^$Q$3</f>
+        <v>-4.3635954186064223E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>16.5</v>
       </c>
@@ -8725,21 +10762,25 @@
         <v>1.2500071945078422E-2</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.5000719450784274E-3</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="H69" s="1">
-        <f t="shared" si="4"/>
-        <v>4.1811790468890259E-4</v>
+        <f t="shared" si="5"/>
+        <v>-4.1811790468890259E-4</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="5"/>
-        <v>4.0268694926168236E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-4.0268694926168236E-4</v>
+      </c>
+      <c r="R69" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.276991505947536E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>16.75</v>
       </c>
@@ -8747,21 +10788,25 @@
         <v>1.2421689225515845E-2</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4216892255158494E-3</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="H70" s="1">
-        <f t="shared" si="4"/>
-        <v>4.1007454973181716E-4</v>
+        <f t="shared" si="5"/>
+        <v>-4.1007454973181716E-4</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="5"/>
-        <v>3.9404769678268186E-4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.9404769678268186E-4</v>
+      </c>
+      <c r="R70" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.1911212499861787E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>17</v>
       </c>
@@ -8769,21 +10814,25 @@
         <v>1.2343306505953264E-2</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.3433065059532714E-3</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="H71" s="1">
-        <f t="shared" si="4"/>
-        <v>4.0210357439150702E-4</v>
+        <f t="shared" si="5"/>
+        <v>-4.0210357439150702E-4</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="5"/>
-        <v>3.8548859014798405E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.8548859014798405E-4</v>
+      </c>
+      <c r="R71" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.105984547510964E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>17.25</v>
       </c>
@@ -8791,21 +10840,25 @@
         <v>1.2264923786390689E-2</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2649237863906934E-3</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="H72" s="1">
-        <f t="shared" si="4"/>
-        <v>3.9420481636015102E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.9420481636015102E-4</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="5"/>
-        <v>3.770096769545414E-4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.770096769545414E-4</v>
+      </c>
+      <c r="R72" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.0215812909917998E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>17.5</v>
       </c>
@@ -8813,21 +10866,25 @@
         <v>1.2108158347265538E-2</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.1081583472655373E-3</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="H73" s="1">
-        <f t="shared" si="4"/>
-        <v>3.7862328757784947E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.7862328757784947E-4</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="5"/>
-        <v>3.6029262868042506E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.6029262868042506E-4</v>
+      </c>
+      <c r="R73" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.8549746626495113E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>17.75</v>
       </c>
@@ -8835,21 +10892,25 @@
         <v>1.2029775627702957E-2</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0297756277029593E-3</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="H74" s="1">
-        <f t="shared" si="4"/>
-        <v>3.7094017632673359E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.7094017632673359E-4</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="5"/>
-        <v>3.5205459642423425E-4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.5205459642423425E-4</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.7727710519255012E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>18</v>
       </c>
@@ -8857,21 +10918,25 @@
         <v>1.1873010188577806E-2</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8730101885778032E-3</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="H75" s="1">
-        <f t="shared" si="4"/>
-        <v>3.5578838251950024E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.5578838251950024E-4</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="5"/>
-        <v>3.358197854010658E-4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.358197854010658E-4</v>
+      </c>
+      <c r="R75" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.610562600146583E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>18.25</v>
       </c>
@@ -8879,21 +10944,25 @@
         <v>1.1794627469015231E-2</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7946274690152391E-3</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="H76" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4831933760198964E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.4831933760198964E-4</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="5"/>
-        <v>3.2782311997471672E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.2782311997471672E-4</v>
+      </c>
+      <c r="R76" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.5305574868821674E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>18.5</v>
       </c>
@@ -8901,21 +10970,25 @@
         <v>1.1716244749452655E-2</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.716244749452661E-3</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="H77" s="1">
-        <f t="shared" si="4"/>
-        <v>3.4092127898903288E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.4092127898903288E-4</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="5"/>
-        <v>3.1990702675947785E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.1990702675947785E-4</v>
+      </c>
+      <c r="R77" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.4512849234602218E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>18.75</v>
       </c>
@@ -8923,21 +10996,25 @@
         <v>1.1637862029890074E-2</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.6378620298900691E-3</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="H78" s="1">
-        <f t="shared" si="4"/>
-        <v>3.335940149875921E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.335940149875921E-4</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="5"/>
-        <v>3.1207156748061271E-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.1207156748061271E-4</v>
+      </c>
+      <c r="R78" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.3727447575489212E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>19</v>
       </c>
@@ -8945,21 +11022,25 @@
         <v>1.1559479310327499E-2</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.559479310327505E-3</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="H79" s="1">
-        <f t="shared" si="4"/>
-        <v>3.2633734926094975E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.2633734926094975E-4</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="5"/>
-        <v>3.0431680609355812E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-3.0431680609355812E-4</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.294936829593922E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>19.25</v>
       </c>
@@ -8967,21 +11048,25 @@
         <v>1.1481096590764923E-2</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4810965907649269E-3</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="H80" s="1">
-        <f t="shared" si="4"/>
-        <v>3.1915108055436694E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.1915108055436694E-4</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="5"/>
-        <v>2.9664280891300034E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.9664280891300034E-4</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.2178609723620716E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>19.5</v>
       </c>
@@ -8989,21 +11074,25 @@
         <v>1.1402713871202348E-2</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4027138712023489E-3</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="H81" s="1">
-        <f t="shared" si="4"/>
-        <v>3.1203500239829814E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.1203500239829814E-4</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="5"/>
-        <v>2.890496447517491E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.890496447517491E-4</v>
+      </c>
+      <c r="R81" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.141517010448973E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>19.75</v>
       </c>
@@ -9011,21 +11100,25 @@
         <v>1.1324331151639765E-2</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3243311516397709E-3</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="H82" s="1">
-        <f t="shared" si="4"/>
-        <v>3.0498890278685093E-4</v>
+        <f t="shared" si="5"/>
+        <v>-3.0498890278685093E-4</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="5"/>
-        <v>2.8153738507026571E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.8153738507026571E-4</v>
+      </c>
+      <c r="R82" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.0659047597465615E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>20</v>
       </c>
@@ -9033,21 +11126,25 @@
         <v>1.124594843207719E-2</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2459484320771929E-3</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="H83" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9801256382896361E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.9801256382896361E-4</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7410610413789778E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.7410610413789778E-4</v>
+      </c>
+      <c r="R83" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.9910240268669799E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>20.25</v>
       </c>
@@ -9055,21 +11152,25 @@
         <v>1.1167565712514616E-2</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1675657125146148E-3</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="H84" s="1">
-        <f t="shared" si="4"/>
-        <v>2.9110576136941868E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.9110576136941868E-4</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="5"/>
-        <v>2.6675587920693325E-4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.6675587920693325E-4</v>
+      </c>
+      <c r="R84" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.9168746085182193E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>20.5</v>
       </c>
@@ -9077,21 +11178,25 @@
         <v>1.108918299295204E-2</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0891829929520368E-3</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="H85" s="1">
-        <f t="shared" si="4"/>
-        <v>2.8426826457648736E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.8426826457648736E-4</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="5"/>
-        <v>2.5948679070074291E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.5948679070074291E-4</v>
+      </c>
+      <c r="R85" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.8434562908267075E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>20.75</v>
       </c>
@@ -9099,21 +11204,25 @@
         <v>1.1010800273389458E-2</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0108002733894588E-3</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="H86" s="1">
-        <f t="shared" si="4"/>
-        <v>2.7749983549255937E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.7749983549255937E-4</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="5"/>
-        <v>2.5229892241741494E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.5229892241741494E-4</v>
+      </c>
+      <c r="R86" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.7707688486012388E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>21</v>
       </c>
@@ -9121,21 +11230,25 @@
         <v>1.0932417553826883E-2</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9324175538268807E-3</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="H87" s="1">
-        <f t="shared" si="4"/>
-        <v>2.70800228543655E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.70800228543655E-4</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="5"/>
-        <v>2.4519236175046604E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.4519236175046604E-4</v>
+      </c>
+      <c r="R87" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.6988120445320694E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>21.25</v>
       </c>
@@ -9143,21 +11256,25 @@
         <v>1.0932417553826883E-2</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9324175538268807E-3</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="H88" s="1">
-        <f t="shared" si="4"/>
-        <v>2.70800228543655E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.70800228543655E-4</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="5"/>
-        <v>2.4519236175046604E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.4519236175046604E-4</v>
+      </c>
+      <c r="R88" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.6988120445320694E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>21.5</v>
       </c>
@@ -9165,21 +11282,25 @@
         <v>1.0854034834264307E-2</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8540348342643027E-3</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="H89" s="1">
-        <f t="shared" si="4"/>
-        <v>2.6416919000317706E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.6416919000317706E-4</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="5"/>
-        <v>2.3816719992839568E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.3816719992839568E-4</v>
+      </c>
+      <c r="R89" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.6275856283181537E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>21.75</v>
       </c>
@@ -9187,21 +11308,25 @@
         <v>1.0775652114701733E-2</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7756521147017386E-3</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="H90" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5760645740462168E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.5760645740462168E-4</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="5"/>
-        <v>2.3122353227508264E-4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.3122353227508264E-4</v>
+      </c>
+      <c r="R90" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.5570893357146677E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>22</v>
       </c>
@@ -9209,21 +11334,25 @@
         <v>1.0697269395139151E-2</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6972693951391467E-3</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="H91" s="1">
-        <f t="shared" si="4"/>
-        <v>2.5111175889724993E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.5111175889724993E-4</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="5"/>
-        <v>2.2436145849326586E-4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.2436145849326586E-4</v>
+      </c>
+      <c r="R91" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.4873228874917647E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>22.25</v>
       </c>
@@ -9231,21 +11360,25 @@
         <v>1.0618886675576575E-2</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6188866755765825E-3</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="H92" s="1">
-        <f t="shared" si="4"/>
-        <v>2.4468481253788702E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.4468481253788702E-4</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="5"/>
-        <v>2.1758108297366424E-4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.1758108297366424E-4</v>
+      </c>
+      <c r="R92" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.4182859882946521E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>22.5</v>
       </c>
@@ -9253,21 +11386,25 @@
         <v>1.0540503956014E-2</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5405039560140045E-3</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="H93" s="1">
-        <f t="shared" si="4"/>
-        <v>2.3832532551099414E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.3832532551099414E-4</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="5"/>
-        <v>2.1088251513257857E-4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.1088251513257857E-4</v>
+      </c>
+      <c r="R93" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.3499783253930526E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>22.75</v>
       </c>
@@ -9275,21 +11412,25 @@
         <v>1.0462121236451426E-2</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4621212364514264E-3</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="H94" s="1">
-        <f t="shared" si="4"/>
-        <v>2.3203299326808444E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.3203299326808444E-4</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="5"/>
-        <v>2.0426586978128378E-4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.0426586978128378E-4</v>
+      </c>
+      <c r="R94" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.2823995673073482E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>23</v>
       </c>
@@ -9297,21 +11438,25 @@
         <v>1.0462121236451426E-2</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4621212364514264E-3</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="H95" s="1">
-        <f t="shared" si="4"/>
-        <v>2.3203299326808444E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.3203299326808444E-4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="5"/>
-        <v>2.0426586978128378E-4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-2.0426586978128378E-4</v>
+      </c>
+      <c r="R95" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.2823995673073482E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>23.25</v>
       </c>
@@ -9319,21 +11464,25 @@
         <v>1.0383738516888842E-2</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3837385168888484E-3</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="H96" s="1">
-        <f t="shared" si="4"/>
-        <v>2.2580749857613395E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.2580749857613395E-4</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="5"/>
-        <v>1.9773126753089623E-4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.9773126753089623E-4</v>
+      </c>
+      <c r="R96" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.2155493622960486E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>23.5</v>
       </c>
@@ -9341,21 +11490,25 @@
         <v>1.0305355797326268E-2</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3053557973262704E-3</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="H97" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1964851046311692E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.1964851046311692E-4</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="5"/>
-        <v>1.9127883523697276E-4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.9127883523697276E-4</v>
+      </c>
+      <c r="R97" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.149427336687472E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>23.75</v>
       </c>
@@ -9363,21 +11516,25 @@
         <v>1.0305355797326268E-2</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.3053557973262704E-3</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="H98" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1964851046311692E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.1964851046311692E-4</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="5"/>
-        <v>1.9127883523697276E-4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.9127883523697276E-4</v>
+      </c>
+      <c r="R98" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.149427336687472E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>24</v>
       </c>
@@ -9385,21 +11542,25 @@
         <v>1.0226973077763692E-2</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2269730777636924E-3</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="H99" s="1">
-        <f t="shared" si="4"/>
-        <v>2.1355568304689922E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.1355568304689922E-4</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="5"/>
-        <v>1.849087064886949E-4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.849087064886949E-4</v>
+      </c>
+      <c r="R99" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.084033093035823E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>24.25</v>
       </c>
@@ -9407,21 +11568,25 @@
         <v>1.0148590358201117E-2</v>
       </c>
       <c r="C100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1485903582011143E-3</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="H100" s="1">
-        <f t="shared" si="4"/>
-        <v>2.0752865423154048E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.0752865423154048E-4</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="5"/>
-        <v>1.7862102214821296E-4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.7862102214821296E-4</v>
+      </c>
+      <c r="R100" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.0193662080787703E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>24.5</v>
       </c>
@@ -9429,21 +11594,25 @@
         <v>1.0070207638638536E-2</v>
       </c>
       <c r="C101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0702076386385363E-3</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="H101" s="1">
-        <f t="shared" si="4"/>
-        <v>2.015670442524204E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.015670442524204E-4</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="5"/>
-        <v>1.7241593094656954E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.7241593094656954E-4</v>
+      </c>
+      <c r="R101" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.9554262304701632E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>24.75</v>
       </c>
@@ -9451,21 +11620,25 @@
         <v>1.0070207638638536E-2</v>
       </c>
       <c r="C102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0702076386385363E-3</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="H102" s="1">
-        <f t="shared" si="4"/>
-        <v>2.015670442524204E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.015670442524204E-4</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="5"/>
-        <v>1.7241593094656954E-4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.7241593094656954E-4</v>
+      </c>
+      <c r="R102" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.9554262304701632E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>25</v>
       </c>
@@ -9473,21 +11646,25 @@
         <v>1.0070207638638536E-2</v>
       </c>
       <c r="C103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0702076386385363E-3</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="H103" s="1">
-        <f t="shared" si="4"/>
-        <v>2.015670442524204E-4</v>
+        <f t="shared" si="5"/>
+        <v>-2.015670442524204E-4</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="5"/>
-        <v>1.7241593094656954E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.7241593094656954E-4</v>
+      </c>
+      <c r="R103" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.9554262304701632E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>25.25</v>
       </c>
@@ -9495,21 +11672,25 @@
         <v>9.9918249190759593E-3</v>
       </c>
       <c r="C104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9918249190759583E-3</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="H104" s="1">
-        <f t="shared" si="4"/>
-        <v>1.9567045404849108E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.9567045404849108E-4</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="5"/>
-        <v>1.6629359014361692E-4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.6629359014361692E-4</v>
+      </c>
+      <c r="R104" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.8922126782571275E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>25.5</v>
       </c>
@@ -9517,21 +11698,25 @@
         <v>9.8350594799508102E-3</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8350594799508161E-3</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="H105" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8407062905516125E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.8407062905516125E-4</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5429783589487135E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.5429783589487135E-4</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.7679627519544752E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>25.75</v>
       </c>
@@ -9539,21 +11724,25 @@
         <v>9.8350594799508102E-3</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8350594799508161E-3</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="H106" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8407062905516125E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.8407062905516125E-4</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5429783589487135E-4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.5429783589487135E-4</v>
+      </c>
+      <c r="R106" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.7679627519544752E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>26</v>
       </c>
@@ -9561,21 +11750,25 @@
         <v>9.8350594799508102E-3</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8350594799508161E-3</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="H107" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8407062905516125E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.8407062905516125E-4</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="5"/>
-        <v>1.5429783589487135E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.5429783589487135E-4</v>
+      </c>
+      <c r="R107" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.7679627519544752E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>26.25</v>
       </c>
@@ -9583,21 +11776,25 @@
         <v>9.7566767603882339E-3</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7566767603882381E-3</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="H108" s="1">
-        <f t="shared" si="4"/>
-        <v>1.7836648205008508E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.7836648205008508E-4</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="5"/>
-        <v>1.4842478663000031E-4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.4842478663000031E-4</v>
+      </c>
+      <c r="R108" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.7069252338833372E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>26.5</v>
       </c>
@@ -9605,21 +11802,25 @@
         <v>9.6782940408256524E-3</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6782940408256461E-3</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="H109" s="1">
-        <f t="shared" si="4"/>
-        <v>1.7272552544710882E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.7272552544710882E-4</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="5"/>
-        <v>1.4263521805231883E-4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.4263521805231883E-4</v>
+      </c>
+      <c r="R109" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6466118457461197E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>26.75</v>
       </c>
@@ -9627,21 +11828,25 @@
         <v>9.6782940408256524E-3</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6782940408256461E-3</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="H110" s="1">
-        <f t="shared" si="4"/>
-        <v>1.7272552544710882E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.7272552544710882E-4</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="5"/>
-        <v>1.4263521805231883E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.4263521805231883E-4</v>
+      </c>
+      <c r="R110" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.6466118457461197E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>27</v>
       </c>
@@ -9649,21 +11854,25 @@
         <v>9.5999113212630778E-3</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.599911321263082E-3</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="H111" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6714723117428076E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.6714723117428076E-4</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="5"/>
-        <v>1.3692934289264756E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.3692934289264756E-4</v>
+      </c>
+      <c r="R111" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.5870219028922346E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>27.25</v>
       </c>
@@ -9671,21 +11880,25 @@
         <v>9.5999113212630778E-3</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.599911321263082E-3</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="H112" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6714723117428076E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.6714723117428076E-4</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="5"/>
-        <v>1.3692934289264756E-4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.3692934289264756E-4</v>
+      </c>
+      <c r="R112" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.5870219028922346E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>27.5</v>
       </c>
@@ -9693,21 +11906,25 @@
         <v>9.5215286017005015E-3</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.521528601700504E-3</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="H113" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6163103666628025E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.6163103666628025E-4</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="5"/>
-        <v>1.3130738831064874E-4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.3130738831064874E-4</v>
+      </c>
+      <c r="R113" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.5281546670598567E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>27.75</v>
       </c>
@@ -9715,21 +11932,25 @@
         <v>9.5215286017005015E-3</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.521528601700504E-3</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="H114" s="1">
-        <f t="shared" si="4"/>
-        <v>1.6163103666628025E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.6163103666628025E-4</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="5"/>
-        <v>1.3130738831064874E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.3130738831064874E-4</v>
+      </c>
+      <c r="R114" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.5281546670598567E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>28</v>
       </c>
@@ -9737,21 +11958,25 @@
         <v>9.443145882137927E-3</v>
       </c>
       <c r="C115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4431458821379259E-3</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
       <c r="H115" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5617634098113325E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.5617634098113325E-4</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2576959734497193E-4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.2576959734497193E-4</v>
+      </c>
+      <c r="R115" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.4700093406225747E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>28.25</v>
       </c>
@@ -9759,19 +11984,23 @@
         <v>9.443145882137927E-3</v>
       </c>
       <c r="C116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.4431458821379259E-3</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5617634098113325E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.5617634098113325E-4</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2576959734497193E-4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.2576959734497193E-4</v>
+      </c>
+      <c r="R116" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.4700093406225747E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>28.5</v>
       </c>
@@ -9779,19 +12008,23 @@
         <v>9.3647631625753455E-3</v>
       </c>
       <c r="C117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3647631625753479E-3</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5078250034146999E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.5078250034146999E-4</v>
       </c>
       <c r="M117" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2031623055607783E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.2031623055607783E-4</v>
+      </c>
+      <c r="R117" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.4125850600329009E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>28.75</v>
       </c>
@@ -9799,19 +12032,23 @@
         <v>9.3647631625753455E-3</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3647631625753479E-3</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5078250034146999E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.5078250034146999E-4</v>
       </c>
       <c r="M118" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2031623055607783E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.2031623055607783E-4</v>
+      </c>
+      <c r="R118" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.4125850600329009E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>29</v>
       </c>
@@ -9819,19 +12056,23 @@
         <v>9.2863804430127692E-3</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2863804430127699E-3</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4544882299393527E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.4544882299393527E-4</v>
       </c>
       <c r="M119" s="1">
-        <f t="shared" si="5"/>
-        <v>1.1494756789413524E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.1494756789413524E-4</v>
+      </c>
+      <c r="R119" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.3558808883221599E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>29.25</v>
       </c>
@@ -9839,19 +12080,23 @@
         <v>9.2079977234501946E-3</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2079977234501919E-3</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="4"/>
-        <v>1.401745632564424E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.401745632564424E-4</v>
       </c>
       <c r="M120" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0966391083104773E-4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.0966391083104773E-4</v>
+      </c>
+      <c r="R120" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2998958064860207E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>29.5</v>
       </c>
@@ -9859,19 +12104,23 @@
         <v>9.2079977234501946E-3</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2079977234501919E-3</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="4"/>
-        <v>1.401745632564424E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.401745632564424E-4</v>
       </c>
       <c r="M121" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0966391083104773E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.0966391083104773E-4</v>
+      </c>
+      <c r="R121" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2998958064860207E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>29.75</v>
       </c>
@@ -9879,19 +12128,23 @@
         <v>9.1296150038876183E-3</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1296150038876208E-3</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3495891459271712E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.3495891459271712E-4</v>
       </c>
       <c r="M122" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0446558480401017E-4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.0446558480401017E-4</v>
+      </c>
+      <c r="R122" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2446287035471781E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>30</v>
       </c>
@@ -9899,19 +12152,23 @@
         <v>9.1296150038876183E-3</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1296150038876208E-3</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3495891459271712E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.3495891459271712E-4</v>
       </c>
       <c r="M123" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0446558480401017E-4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.0446558480401017E-4</v>
+      </c>
+      <c r="R123" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2446287035471781E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>30.25</v>
       </c>
@@ -9919,19 +12176,23 @@
         <v>9.1296150038876183E-3</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1296150038876208E-3</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3495891459271712E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.3495891459271712E-4</v>
       </c>
       <c r="M124" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0446558480401017E-4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.0446558480401017E-4</v>
+      </c>
+      <c r="R124" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2446287035471781E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>30.5</v>
       </c>
@@ -9939,19 +12200,23 @@
         <v>9.1296150038876183E-3</v>
       </c>
       <c r="C125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1296150038876208E-3</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="4"/>
-        <v>1.3495891459271712E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.3495891459271712E-4</v>
       </c>
       <c r="M125" s="1">
-        <f t="shared" si="5"/>
-        <v>1.0446558480401017E-4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-1.0446558480401017E-4</v>
+      </c>
+      <c r="R125" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.2446287035471781E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>30.75</v>
       </c>
@@ -9959,19 +12224,23 @@
         <v>9.0512322843250368E-3</v>
       </c>
       <c r="C126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0512322843250358E-3</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2980100151491566E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.2980100151491566E-4</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" si="5"/>
-        <v>9.9352942028475401E-5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-9.9352942028475401E-5</v>
+      </c>
+      <c r="R126" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.1900783650388543E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>31</v>
       </c>
@@ -9979,19 +12248,23 @@
         <v>8.9728495647624622E-3</v>
       </c>
       <c r="C127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9728495647624647E-3</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2469987006536403E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.2469987006536403E-4</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="5"/>
-        <v>9.4326364751702127E-5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-9.4326364751702127E-5</v>
+      </c>
+      <c r="R127" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.1362434595919754E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>31.25</v>
       </c>
@@ -9999,19 +12272,23 @@
         <v>8.9728495647624622E-3</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9728495647624647E-3</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2469987006536403E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.2469987006536403E-4</v>
       </c>
       <c r="M128" s="1">
-        <f t="shared" si="5"/>
-        <v>9.4326364751702127E-5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-9.4326364751702127E-5</v>
+      </c>
+      <c r="R128" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.1362434595919754E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>31.5</v>
       </c>
@@ -10019,19 +12296,23 @@
         <v>8.9728495647624622E-3</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9728495647624647E-3</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2469987006536403E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.2469987006536403E-4</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="5"/>
-        <v>9.4326364751702127E-5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-9.4326364751702127E-5</v>
+      </c>
+      <c r="R129" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.1362434595919754E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>31.75</v>
       </c>
@@ -10039,19 +12320,23 @@
         <v>8.894466845199886E-3</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8944668451998867E-3</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1965447656382285E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.1965447656382285E-4</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="5"/>
-        <v>8.9386269034977186E-5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-8.9386269034977186E-5</v>
+      </c>
+      <c r="R130" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.0831225232301265E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>32</v>
       </c>
@@ -10059,19 +12344,23 @@
         <v>8.894466845199886E-3</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8944668451998867E-3</v>
       </c>
       <c r="H131" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1965447656382285E-4</v>
+        <f t="shared" si="5"/>
+        <v>-1.1965447656382285E-4</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" si="5"/>
-        <v>8.9386269034977186E-5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>-8.9386269034977186E-5</v>
+      </c>
+      <c r="R131" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.0831225232301265E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>32.25</v>
       </c>
@@ -10079,19 +12368,23 @@
         <v>8.8160841256373114E-3</v>
       </c>
       <c r="C132" s="1">
-        <f t="shared" ref="C132:C143" si="6">B132+0.053 - 0.06</f>
+        <f t="shared" ref="C132:C143" si="8">B132+0.053 - 0.06</f>
         <v>1.8160841256373156E-3</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" ref="H132:H143" si="7">$E$3*B132^$F$3*C132^$G$3</f>
-        <v>1.1466367422200288E-4</v>
+        <f t="shared" ref="H132:H143" si="9">-$E$3*B132^$F$3*C132^$G$3</f>
+        <v>-1.1466367422200288E-4</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" ref="M132:M143" si="8">$J$3*B132^$K$3*C132^$L$3</f>
-        <v>8.4533109174499138E-5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M132:M143" si="10">-$J$3*B132^$K$3*C132^$L$3</f>
+        <v>-8.4533109174499138E-5</v>
+      </c>
+      <c r="R132" s="1">
+        <f t="shared" ref="R132:R143" si="11">-$O$3*B132^$P$3*C132^$Q$3</f>
+        <v>-1.0307139408751366E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>32.5</v>
       </c>
@@ -10099,19 +12392,23 @@
         <v>8.8160841256373114E-3</v>
       </c>
       <c r="C133" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8160841256373156E-3</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" si="7"/>
-        <v>1.1466367422200288E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.1466367422200288E-4</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="8"/>
-        <v>8.4533109174499138E-5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-8.4533109174499138E-5</v>
+      </c>
+      <c r="R133" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.0307139408751366E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>32.75</v>
       </c>
@@ -10119,19 +12416,23 @@
         <v>8.7377014060747299E-3</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7377014060747306E-3</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0972619711482757E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.0972619711482757E-4</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="8"/>
-        <v>7.9767382899267831E-5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-7.9767382899267831E-5</v>
+      </c>
+      <c r="R134" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.7901592443227584E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>33</v>
       </c>
@@ -10139,19 +12440,23 @@
         <v>8.7377014060747299E-3</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7377014060747306E-3</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0972619711482757E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.0972619711482757E-4</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="8"/>
-        <v>7.9767382899267831E-5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-7.9767382899267831E-5</v>
+      </c>
+      <c r="R135" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.7901592443227584E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>33.25</v>
       </c>
@@ -10159,19 +12464,23 @@
         <v>8.7377014060747299E-3</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7377014060747306E-3</v>
       </c>
       <c r="H136" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0972619711482757E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.0972619711482757E-4</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" si="8"/>
-        <v>7.9767382899267831E-5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-7.9767382899267831E-5</v>
+      </c>
+      <c r="R136" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.7901592443227584E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>33.5</v>
       </c>
@@ -10179,19 +12488,23 @@
         <v>8.6593186865121536E-3</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6593186865121526E-3</v>
       </c>
       <c r="H137" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0484064084775233E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.0484064084775233E-4</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="8"/>
-        <v>7.5089637521700672E-5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-7.5089637521700672E-5</v>
+      </c>
+      <c r="R137" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.2802648664787015E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>33.75</v>
       </c>
@@ -10199,19 +12512,23 @@
         <v>8.6593186865121536E-3</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6593186865121526E-3</v>
       </c>
       <c r="H138" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0484064084775233E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.0484064084775233E-4</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="8"/>
-        <v>7.5089637521700672E-5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-7.5089637521700672E-5</v>
+      </c>
+      <c r="R138" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.2802648664787015E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>34</v>
       </c>
@@ -10219,19 +12536,23 @@
         <v>8.6593186865121536E-3</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6593186865121526E-3</v>
       </c>
       <c r="H139" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0484064084775233E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.0484064084775233E-4</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="8"/>
-        <v>7.5089637521700672E-5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-7.5089637521700672E-5</v>
+      </c>
+      <c r="R139" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.2802648664787015E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>34.25</v>
       </c>
@@ -10239,19 +12560,23 @@
         <v>8.6593186865121536E-3</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6593186865121526E-3</v>
       </c>
       <c r="H140" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0484064084775233E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.0484064084775233E-4</v>
       </c>
       <c r="M140" s="1">
-        <f t="shared" si="8"/>
-        <v>7.5089637521700672E-5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-7.5089637521700672E-5</v>
+      </c>
+      <c r="R140" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.2802648664787015E-5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>34.5</v>
       </c>
@@ -10259,19 +12584,23 @@
         <v>8.580935966949579E-3</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5809359669495815E-3</v>
       </c>
       <c r="H141" s="1">
-        <f t="shared" si="7"/>
-        <v>1.0000543905588848E-4</v>
+        <f t="shared" si="9"/>
+        <v>-1.0000543905588848E-4</v>
       </c>
       <c r="M141" s="1">
-        <f t="shared" si="8"/>
-        <v>7.0500477266252729E-5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-7.0500477266252729E-5</v>
+      </c>
+      <c r="R141" s="1">
+        <f t="shared" si="11"/>
+        <v>-8.7774340969519509E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>34.75</v>
       </c>
@@ -10279,19 +12608,23 @@
         <v>8.5025532473870045E-3</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5025532473870035E-3</v>
       </c>
       <c r="H142" s="1">
-        <f t="shared" si="7"/>
-        <v>9.5218834591365278E-5</v>
+        <f t="shared" si="9"/>
+        <v>-9.5218834591365278E-5</v>
       </c>
       <c r="M142" s="1">
-        <f t="shared" si="8"/>
-        <v>6.600057206804546E-5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-6.600057206804546E-5</v>
+      </c>
+      <c r="R142" s="1">
+        <f t="shared" si="11"/>
+        <v>-8.2816420712395898E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>35</v>
       </c>
@@ -10299,19 +12632,23 @@
         <v>8.5025532473870045E-3</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5025532473870035E-3</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="7"/>
-        <v>9.5218834591365278E-5</v>
+        <f t="shared" si="9"/>
+        <v>-9.5218834591365278E-5</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" si="8"/>
-        <v>6.600057206804546E-5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-6.600057206804546E-5</v>
+      </c>
+      <c r="R143" s="1">
+        <f t="shared" si="11"/>
+        <v>-8.2816420712395898E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
     </row>
@@ -10325,31 +12662,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E861FCB14FFF744AABFFEF7AE2C782CA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5310c521c3c81a91366d828d57068640">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0e1cfed-9c19-4f72-8d75-cd9f9b9ff4ab" xmlns:ns4="5262057f-2399-4552-a526-169271e68a77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="194f836160a901edb9884ec0a9aa4eda" ns3:_="" ns4:_="">
     <xsd:import namespace="e0e1cfed-9c19-4f72-8d75-cd9f9b9ff4ab"/>
@@ -10572,15 +12894,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -10588,6 +12901,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9907F1F-20AC-4176-9A5A-E3907ECED563}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A4477DE-C866-4D15-B360-381E4CA59F1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10602,14 +12923,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9907F1F-20AC-4176-9A5A-E3907ECED563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
